--- a/SEM-1/Staff-Workload-2022-23.xlsx
+++ b/SEM-1/Staff-Workload-2022-23.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="455">
   <si>
     <t>S. No.</t>
   </si>
@@ -761,63 +761,27 @@
     <t>Digital Signal Processing (IV B.Tech, I - Sem, Section - B)</t>
   </si>
   <si>
-    <t>2021-2022-I Semster Work Load</t>
-  </si>
-  <si>
     <t>P. Veera Prakash</t>
   </si>
   <si>
-    <t xml:space="preserve">Software Engineering( II B.Tech I-Sem, CSD)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software Engineering( II B.Tech I-Sem, CSM)  </t>
-  </si>
-  <si>
     <t>Head of the Deopartment, Criterion 1 &amp;2 Incharge, Celonis Trainer</t>
   </si>
   <si>
     <t>Dr. G.K. Venkata Narasimha Reddy</t>
   </si>
   <si>
-    <t xml:space="preserve">Grid &amp; Cloud Computing( IV B.Tech I-Sem, Section - A)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grid &amp; Cloud Computing( IV B.Tech I-Sem, Section - B)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grid &amp; Cloud Computing Lab ( IV B.Tech I-Sem, Section - A)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grid &amp; Cloud Computing Lab ( IV B.Tech I-Sem, Section - B)  </t>
-  </si>
-  <si>
     <t>BOS Chairman,Internships Coordinator, NBA &amp; NAAC Coordinator, PaloAlto &amp; Celonis Institute level educator.</t>
   </si>
   <si>
     <t>Dr. C.Sasikala</t>
   </si>
   <si>
-    <t xml:space="preserve">Computer Networks( III B.Tech I-Sem, Section - A)  </t>
-  </si>
-  <si>
-    <t>Compiler Networks and Operating Systems Lab</t>
-  </si>
-  <si>
     <t>Deputy HOD, Criterion - 4 Incharge</t>
   </si>
   <si>
     <t>Dr. B. Lakshmi Narayana Reddy</t>
   </si>
   <si>
-    <t xml:space="preserve">Problem Solving &amp; Programming( I B.Tech I-Sem, Section - A)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Problem Solving &amp; Programming( I B.Tech I-Sem, Section - B)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Problem Solving &amp; Programming Lab ( I B.Tech I-Sem, Section - A)  </t>
-  </si>
-  <si>
     <t>Problem Solving &amp; Programming Lab ( I B.Tech I-Sem, Section - B)</t>
   </si>
   <si>
@@ -827,72 +791,33 @@
     <t>Dr. B. Hari Chandana</t>
   </si>
   <si>
-    <t>Object Oriented Programming ( II B.Tech I-Sem, Section - A)</t>
-  </si>
-  <si>
-    <t>Object Oriented Programming ( II B.Tech I-Sem, Section - B)</t>
-  </si>
-  <si>
-    <t>Object Oriented Programming Lab ( II B.Tech I-Sem, Section - A)</t>
-  </si>
-  <si>
-    <t>Object Oriented Programming Lab( II B.Tech I-Sem, Section - B)</t>
-  </si>
-  <si>
     <t>DXC Coordinator, Criterion 5 - Incharge</t>
   </si>
   <si>
     <t>Dr. P. Chitralingappa</t>
   </si>
   <si>
-    <t>Mobile Application Development ( IV B.Tech I-Sem, Section - A)</t>
-  </si>
-  <si>
-    <t>Mobile Application Development ( IV B.Tech I-Sem, Section - B)</t>
-  </si>
-  <si>
-    <t>Mobile Application Development Lab ( IV B.Tech I-Sem, Section - A)</t>
-  </si>
-  <si>
-    <t>Mobile Application Development Lab ( IV B.Tech I-Sem, Section - B)</t>
-  </si>
-  <si>
     <t>APSSDC Coordinator, SDC Coordinator, Criterion 6 Member</t>
   </si>
   <si>
     <t>L.Suman</t>
   </si>
   <si>
-    <t xml:space="preserve">Compiler Design( III B.Tech I-Sem, Section - A)                        </t>
-  </si>
-  <si>
     <t>BluePrism Institute level educator. QP Audit Member, Criterion 3 Member, Exam related activities</t>
   </si>
   <si>
     <t>M. Narasimhulu</t>
   </si>
   <si>
-    <t xml:space="preserve">Operating Systems( III B.Tech I-Sem, Section - A)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compiler Networks and Operating Systems Lab( III B.Tech I-Sem, Section - A)  </t>
-  </si>
-  <si>
     <t>Criterion 5 Member,CISCO Institute level educator.</t>
   </si>
   <si>
     <t>Dr. Y. Hemanth Kumar Yadav</t>
   </si>
   <si>
-    <t>AWS Global Certified  Institute level educator, Website Incharge, Criterion 7 Incharge</t>
-  </si>
-  <si>
     <t>Dr. T. Venkata Naga Jayudu</t>
   </si>
   <si>
-    <t xml:space="preserve">Information Secruity ( IV B.Tech I-Sem, Section - A)  </t>
-  </si>
-  <si>
     <t>Deputy Controller of Examsection, Criterion 6 Incharge</t>
   </si>
   <si>
@@ -902,33 +827,9 @@
     <t>NSS Institute level Coordinator, Criterion 7 member</t>
   </si>
   <si>
-    <t>T. Murali Krishna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artificial Intelligence( III B.Tech I-Sem, Section - A)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web Development Technologies Lab( III B.Tech I-Sem, Section - A)  </t>
-  </si>
-  <si>
-    <t>Criterion 5 Member,CISCO Institute level educator R&amp;D Department Member</t>
-  </si>
-  <si>
     <t>G.Chinnapullaiah</t>
   </si>
   <si>
-    <t xml:space="preserve">Machine Learning( IV B.Tech I-Sem, Section - A)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine Learning( IV B.Tech I-Sem, Section - B)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Applied Statistics Lab( II B.Tech I-Sem, CSM)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Applied Statistics Lab ( II B.Tech I-Sem, CSD)  </t>
-  </si>
-  <si>
     <t>T&amp;P Associate, UIPath Instute level  educator, Criterion 4</t>
   </si>
   <si>
@@ -938,96 +839,39 @@
     <t>B. Sreedhar</t>
   </si>
   <si>
-    <t xml:space="preserve">Database Management Systems ( II B.Tech I-Sem, Section - A)  </t>
-  </si>
-  <si>
-    <t>Database Management Systems ( II B.Tech I-Sem, Section - B)</t>
-  </si>
-  <si>
-    <t>Database Management Systems  Lab ( II B.Tech I-Sem, Section - A)</t>
-  </si>
-  <si>
-    <t>Database Management Systems Lab ( II B.Tech I-Sem, Section - B)</t>
-  </si>
-  <si>
     <t>AWS Global Certified Institute level educator, Programmers Club Coordinator, Criterion  4  Incharge, III Cell  Department Member.</t>
   </si>
   <si>
     <t>M.Soumya</t>
   </si>
   <si>
-    <t xml:space="preserve">Applied Statistics( II B.Tech I-Sem, CSD)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Applied Statistics( II B.Tech I-Sem, CSM)  </t>
-  </si>
-  <si>
     <t>NSS Department  Coordinator, Criterion 3 Member,UIPath Instute level  educator, DXC Coordinator</t>
   </si>
   <si>
     <t>K. Kondanna</t>
   </si>
   <si>
-    <t xml:space="preserve">Software Project Management( IV B.Tech I-Sem, Section - A)  </t>
-  </si>
-  <si>
-    <t>Software Project Management( IV B.Tech I-Sem, Section - B)</t>
-  </si>
-  <si>
     <t>Mobile Application Development Laboratory ( IV B.Tech I-Sem, Section - A)</t>
   </si>
   <si>
     <t>Mobile Application Development Laboratory ( IV B.Tech I-Sem, Section - B)</t>
   </si>
   <si>
-    <t>SalesForce Institute level educator, Criterion 3 Member, EDP Cell member,  III Year Class Teacher</t>
-  </si>
-  <si>
-    <t>K. Sruthi</t>
-  </si>
-  <si>
     <t>K. Lokeshnath</t>
   </si>
   <si>
-    <t xml:space="preserve">Software Engineering( II B.Tech I-Sem, Section - A) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software Engineering( II B.Tech I-Sem, Section - B) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software Engineering Lab ( II B.Tech I-Sem, Section - A) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software Engineering Lab ( II B.Tech I-Sem, Section - B) </t>
-  </si>
-  <si>
     <t>Class Teacher, Criterion 5 member, SalesForce Institute level educator, Department Library Incharge</t>
   </si>
   <si>
     <t>S. Sunitha</t>
   </si>
   <si>
-    <t xml:space="preserve">Database Management Systems ( II B.Tech I-Sem, CSD)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database Management Systems ( II B.Tech I-Sem, CSM)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database Management Systems Lab ( II B.Tech I-Sem, CSD)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database Management Systems Lab ( II B.Tech I-Sem, CSM)  </t>
-  </si>
-  <si>
     <t>Criterion 4 member, SalesForce Trainer</t>
   </si>
   <si>
     <t>K. Venkatesh</t>
   </si>
   <si>
-    <t xml:space="preserve">Web Development Technologies( III B.Tech I-Sem, Section - A)  </t>
-  </si>
-  <si>
     <t>Website Incharge, IV Year Class Teacher, Project Coordinator</t>
   </si>
   <si>
@@ -1251,13 +1095,310 @@
   </si>
   <si>
     <t>Data Mining and Predictive Modeling Lab(II B.Tech, II-Sem, CSD&amp;CSM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dr. M. Ranjit Reddy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. A. Bala Ankanna </t>
+  </si>
+  <si>
+    <t>Mr. A. Erriswami Reddy</t>
+  </si>
+  <si>
+    <t>Mrs. P. Manjeera</t>
+  </si>
+  <si>
+    <t>Mrs. G. Nagaleela</t>
+  </si>
+  <si>
+    <t>Mrs. S. Sunitha</t>
+  </si>
+  <si>
+    <t>Mrs. V. Kamakshamma</t>
+  </si>
+  <si>
+    <t>Mr. G. Ganesh</t>
+  </si>
+  <si>
+    <t>Ms. D. Jeevana Jyothi</t>
+  </si>
+  <si>
+    <t>Mr. C. Lakshminatha Reddy</t>
+  </si>
+  <si>
+    <t>Mr.P. Rama Bayapa Reddy</t>
+  </si>
+  <si>
+    <t>Mr.B. Vijay Bhaskar Reddy</t>
+  </si>
+  <si>
+    <t>Mrs. B. Subba Chaithanya</t>
+  </si>
+  <si>
+    <t>AY: 2022 - 23 I SEM FACULTY WORK LOAD Distribution</t>
+  </si>
+  <si>
+    <t>Object Oriented Programming (II B.Tech I Sem CSE Sec-A)</t>
+  </si>
+  <si>
+    <t>Object Oriented Programming (II B.Tech I Sem CSE Sec-B)</t>
+  </si>
+  <si>
+    <t>Object Oriented Programming Lab (II B.Tech I Sem CSE Sec-A)</t>
+  </si>
+  <si>
+    <t>Object Oriented Programming Lab (II B.Tech I Sem CSE Sec-B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Software Engineering (II B.Tech I Sem CSE Sec-A)</t>
+  </si>
+  <si>
+    <t>Mr. D. Mohammed Rafi</t>
+  </si>
+  <si>
+    <t>Nil</t>
+  </si>
+  <si>
+    <t>Software Engineering Lab (II B.Tech I Sem CSE - Sec. A)</t>
+  </si>
+  <si>
+    <t>Software Engineering Lab (II B.Tech I Sem CSE - Sec. B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data Base Management Systems Lab (II B.Tech I Sem CSE - B)</t>
+  </si>
+  <si>
+    <t>Object Oriented Programming  Lab (II B.Tech I Sem CSE - B)</t>
+  </si>
+  <si>
+    <t>Web Development Technologies ( III B.Tech I Sem CSE Sec-A)</t>
+  </si>
+  <si>
+    <t>Web Development Technologies ( III B.Tech I Sem CSE Sec-B)</t>
+  </si>
+  <si>
+    <t>Web Development Technologies Lab (III B.Tech I Sem CSE Sec. A)</t>
+  </si>
+  <si>
+    <t>Web Development Technologies Lab (III B.Tech I Sem CSE Sec. B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. D. Rajesh Babu </t>
+  </si>
+  <si>
+    <t>Problem Solving and Progaming (I B.Tech I Sem CSM Sec. A)</t>
+  </si>
+  <si>
+    <t>Problem Solving and Progaming (I B.Tech I Sem CSM Sec. B)</t>
+  </si>
+  <si>
+    <t>Problem Solving and Progaming Lab (I B.Tech I Sem CSM Sec. A)</t>
+  </si>
+  <si>
+    <t>Computer Organization and Operating Systems (III B.Tech I Sem CSM)</t>
+  </si>
+  <si>
+    <t>Computer Organization and Operating Systems (III B.Tech I Sem CSD)</t>
+  </si>
+  <si>
+    <t>Computer Organization and Operating Systems Lab (III B.Tech I Sem CSD)</t>
+  </si>
+  <si>
+    <t>Computer Organization and Operating Systems Lab (III B.Tech I Sem CSM)</t>
+  </si>
+  <si>
+    <t>Computer Networks (III B.Tech I Sem CSE Sec A)</t>
+  </si>
+  <si>
+    <t>Computer Networks (III B.Tech I Sem CSE Sec B)</t>
+  </si>
+  <si>
+    <t>Disilinary Activity (Thursday: Morning), AntiRagging Duty(Monday-boyshostel-12:00 to 1:00 PM), Couselling Activity ( 2 Year CSD Roll No 214G1A32501 to 530)</t>
+  </si>
+  <si>
+    <t>Software Engineering (II B.Tech I Sem CSM Sec-A)</t>
+  </si>
+  <si>
+    <t>Software Engineering (II B.Tech I Sem CSM Sec-B)</t>
+  </si>
+  <si>
+    <t>AWS Global Certified  Institute level educator, Website Incharge, CSM HOD, Couselling Activity (3 Year CSD 204G1A3201 to 3221, 214G5A3201 to 3203 (24)), BOS Member, IDC member, Academic Audit Mamber, Time Table incharge for CSM.</t>
+  </si>
+  <si>
+    <t>Dr. G. Hemanth Kumar Yadav</t>
+  </si>
+  <si>
+    <t>Computer Networks and Operating System Lab (III B.Tech I Sem CSE Sec. A)</t>
+  </si>
+  <si>
+    <t>Computer Networks and Operating System Lab (III B.Tech I Sem CSE Sec. B)</t>
+  </si>
+  <si>
+    <t>Operating Systems (III B.Tech I Sem CSE Sec-A)</t>
+  </si>
+  <si>
+    <t>Operating Systems (III B.Tech I Sem CSE Sec-B)</t>
+  </si>
+  <si>
+    <t>Data Warehousing and Data Mining (III B.Tech I Sem CSE Sec-A)</t>
+  </si>
+  <si>
+    <t>Data Warehousing and Data Mining (III B.Tech I Sem CSE Sec-B)</t>
+  </si>
+  <si>
+    <t>Internet of things  (Skill Advanced Course) (III B.Tech I Sem CSE - Sec. A)</t>
+  </si>
+  <si>
+    <t>Internet of things  (Skill Advanced Course) (III B.Tech I Sem CSE - Sec. B)</t>
+  </si>
+  <si>
+    <t>Mrs. C. K.  Suneetha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Web Development Technologies Lab (III B.Tech I Sem CSE Sec. A &amp; B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aritificial Intelligence Lab ( III B. Tech I Sem CSM &amp; CSD) </t>
+  </si>
+  <si>
+    <t>Web Development Technologies (SAC) ( III B.Tech I Sem CSM &amp; CSD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Object Oriented Programming  Lab(II B.Tech I Sem - CSE  Sec B),   Data Base Management Systems Lab(II B.Tech I Sem - CSE  Sec B, II B.Tech I Sem - CSD  Sec A &amp; B )</t>
+  </si>
+  <si>
+    <t>Anti-Ragging Duty (Friday)</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence (III B.Tech I Sem CSM )</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence (III B.Tech I Sem CSD )</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence Lab (III B.Tech I Sem CSM )</t>
+  </si>
+  <si>
+    <t>Design And Analysis of Algorithms (III B.Tech I Sem CSM)</t>
+  </si>
+  <si>
+    <t>Design And Analysis of Algorithms (III B.Tech I Sem CSD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> web Development Technologies (SAC) (III B.Tech I Sem CSM)</t>
+  </si>
+  <si>
+    <t>Web Development Technologies (SAC) (III B.Tech I Sem CSD)</t>
+  </si>
+  <si>
+    <t>Computer Organization and Operating System Lab ( III B.Tech I Sem CSM &amp; CSD)</t>
+  </si>
+  <si>
+    <t>Machine Learning (IV B.Tech I Sem CSE Sec - A)</t>
+  </si>
+  <si>
+    <t>Couselling Activity ( IV B.Tech I Sem Roll No : 194G1A05C1 to 5C8, 204g5A0501 to 512 (20 members)), Displinary Activity on Tue, Anti-ragging Duty on Wed. In NBA Criterion-4 Incharge for CSD, Co-Ordinator of Inhouse Intership Program, Guiding Presently 2 Batches- A3 &amp; A17, As per HoD instructions of CSD, Auditing is Carried in CSD Dept, Co-ordinator of Virtual Lab at College Level.</t>
+  </si>
+  <si>
+    <t>Machine Learning Laboratory ( IV B.Tech I SEM CSE Sec. A)</t>
+  </si>
+  <si>
+    <t>Machine Learning Laboratory ( IV B.Tech I SEM CSE Sec. B)</t>
+  </si>
+  <si>
+    <t>Wireless Sensor Network (IV B.Tech I Sem CSE Sec-A)</t>
+  </si>
+  <si>
+    <t>Wireless Sensor Network (IV B.Tech I Sem CSE Sec-B)</t>
+  </si>
+  <si>
+    <t>APSSDC Coordinator, SDC Coordinator, Criterion 6 Member, CSD HOD</t>
+  </si>
+  <si>
+    <t>Blockchain Fundamentals (IV B.Tech I Sem CSE Sec-B)</t>
+  </si>
+  <si>
+    <t>Blockchain Fundamentals (IV B.Tech I Sem CSE Sec-A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nil </t>
+  </si>
+  <si>
+    <t>Fundamentals of  Security in Computing (IV B.Tech I Sem CSE Sec. A)</t>
+  </si>
+  <si>
+    <t>Introduction to Image Processing (IV B.Tech I Sem CSE Sec. A )</t>
+  </si>
+  <si>
+    <t>Introduction to Image Processing (IV B.Tech I Sem CSE Sec. B )</t>
+  </si>
+  <si>
+    <t>Internet of Things Laboratory (IV B.Tech CSE Sec A)</t>
+  </si>
+  <si>
+    <t>Internet of Things Laboratory (IV B.Tech CSE Sec B)</t>
+  </si>
+  <si>
+    <t>Project Stage 1 ( IV B.Tech I Sem CSE Sec. A &amp; B)</t>
+  </si>
+  <si>
+    <t>Dr. C. Sasikala</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Database Management Systems (II B.Tech I Sem CSD Sec-A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Database Management Systems (II B.Tech I Sem CSD Sec-B)</t>
+  </si>
+  <si>
+    <t>Data Base Management Systems Lab (II B. Tech I Sem CSD Sec. A</t>
+  </si>
+  <si>
+    <t>Applied Statistics (II B.Tech I Sem CSD Sec-A)</t>
+  </si>
+  <si>
+    <t>Applied Statistics (II B.Tech I Sem CSD Sec-B)</t>
+  </si>
+  <si>
+    <t>Applied Statistics  Lab  ( II B.Tech I Sem CSD - Sec. A)</t>
+  </si>
+  <si>
+    <t>Applied Statistics  Lab  ( II B.Tech I Sem CSD - Sec. B)</t>
+  </si>
+  <si>
+    <t>G. Chinnapullaiah</t>
+  </si>
+  <si>
+    <t>Object Oriented Programming (II B.Tech I Sem CSD Sec-A)</t>
+  </si>
+  <si>
+    <t>Object Oriented Programming (II B.Tech I Sem CSD Sec-B)</t>
+  </si>
+  <si>
+    <t>Object Oriented Programming  Lab ( II B.Tech I Sem CSD Sec. A)</t>
+  </si>
+  <si>
+    <t>Object Oriented Programming  Lab ( II B.Tech I Sem CSD Sec. B)</t>
+  </si>
+  <si>
+    <t>Applied Statistics Lab ( II B.Tech I Sem CSM Sec. A)</t>
+  </si>
+  <si>
+    <t>SalesForce Institute level educator, Criterion 3 Member, II Year CSD Class Teacher, III CSE-A Couselling Activity (204G1A0522 to 542, 214G5A0504, 505 (23)) Dicipline Duty - (Monday), Presently Guiding 2 Project Batches.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1349,28 +1490,8 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Docs-Caladea"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1379,8 +1500,40 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1405,8 +1558,20 @@
         <bgColor rgb="FFF8F9FA"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor rgb="FFF8F9FA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1520,6 +1685,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1656,101 +1836,119 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1991,7 +2189,7 @@
     <col min="13" max="13" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" ht="38.700000000000003">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2545,7 +2743,7 @@
       </c>
       <c r="N17" s="12"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" ht="12.9">
       <c r="A18" s="11"/>
       <c r="B18" s="14"/>
       <c r="C18" s="9"/>
@@ -18181,7 +18379,7 @@
     <col min="9" max="9" width="27.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" ht="38.700000000000003">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21126,33 +21324,39 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z58"/>
+  <dimension ref="A1:Z66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.7265625" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="50.36328125" customWidth="1"/>
-    <col min="5" max="5" width="48.26953125" customWidth="1"/>
+    <col min="3" max="3" width="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.7265625" customWidth="1"/>
-    <col min="9" max="9" width="48.90625" customWidth="1"/>
+    <col min="9" max="9" width="59.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="47.08984375" customWidth="1"/>
     <col min="14" max="14" width="50.08984375" customWidth="1"/>
     <col min="15" max="15" width="27.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" ht="13.45" thickBot="1">
       <c r="A1" s="47"/>
       <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="C1" s="97" t="s">
+        <v>369</v>
+      </c>
       <c r="D1" s="47"/>
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
-      <c r="G1" s="47" t="s">
-        <v>244</v>
-      </c>
+      <c r="G1" s="47"/>
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
@@ -21160,7 +21364,7 @@
       <c r="L1" s="47"/>
       <c r="M1" s="47"/>
       <c r="N1" s="48"/>
-      <c r="O1" s="49"/>
+      <c r="O1" s="87"/>
       <c r="P1" s="49"/>
       <c r="Q1" s="49"/>
       <c r="R1" s="49"/>
@@ -21173,10 +21377,10 @@
       <c r="Y1" s="49"/>
       <c r="Z1" s="49"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="13.45" thickBot="1">
       <c r="A2" s="47"/>
       <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="C2" s="97"/>
       <c r="D2" s="47"/>
       <c r="E2" s="47"/>
       <c r="F2" s="47"/>
@@ -21188,7 +21392,7 @@
       <c r="L2" s="47"/>
       <c r="M2" s="47"/>
       <c r="N2" s="48"/>
-      <c r="O2" s="49"/>
+      <c r="O2" s="87"/>
       <c r="P2" s="49"/>
       <c r="Q2" s="49"/>
       <c r="R2" s="49"/>
@@ -21201,2228 +21405,2534 @@
       <c r="Y2" s="49"/>
       <c r="Z2" s="49"/>
     </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:26" ht="45.7" thickBot="1">
+      <c r="A3" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="80" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="5">
+      <c r="O3" s="88"/>
+    </row>
+    <row r="4" spans="1:26" ht="41" customHeight="1" thickBot="1">
+      <c r="A4" s="86">
         <v>1</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="D4" s="86">
+        <v>4</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="F4" s="86">
+        <v>4</v>
+      </c>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86">
+        <f t="shared" ref="M4:M36" si="0">L4+J4+H4+F4+D4</f>
+        <v>8</v>
+      </c>
+      <c r="N4" s="81" t="s">
         <v>245</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="O4" s="81" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="41" customHeight="1" thickBot="1">
+      <c r="A5" s="86">
+        <v>2</v>
+      </c>
+      <c r="B5" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="5">
+      <c r="C5" s="95" t="s">
+        <v>432</v>
+      </c>
+      <c r="D5" s="86">
+        <v>5</v>
+      </c>
+      <c r="E5" s="95" t="s">
+        <v>431</v>
+      </c>
+      <c r="F5" s="86">
+        <v>5</v>
+      </c>
+      <c r="G5" s="96" t="s">
+        <v>426</v>
+      </c>
+      <c r="H5" s="86">
+        <v>3</v>
+      </c>
+      <c r="I5" s="96" t="s">
+        <v>427</v>
+      </c>
+      <c r="J5" s="86">
+        <v>3</v>
+      </c>
+      <c r="K5" s="86" t="s">
+        <v>410</v>
+      </c>
+      <c r="L5" s="86">
+        <v>0</v>
+      </c>
+      <c r="M5" s="86">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="N5" s="81" t="s">
+        <v>247</v>
+      </c>
+      <c r="O5" s="81" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="41" customHeight="1" thickBot="1">
+      <c r="A6" s="86">
+        <v>3</v>
+      </c>
+      <c r="B6" s="84" t="s">
+        <v>356</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>376</v>
+      </c>
+      <c r="D6" s="86">
+        <v>0</v>
+      </c>
+      <c r="E6" s="86" t="s">
+        <v>376</v>
+      </c>
+      <c r="F6" s="86">
+        <v>0</v>
+      </c>
+      <c r="G6" s="81" t="s">
+        <v>376</v>
+      </c>
+      <c r="H6" s="86">
+        <v>0</v>
+      </c>
+      <c r="I6" s="81" t="s">
+        <v>376</v>
+      </c>
+      <c r="J6" s="86">
+        <v>0</v>
+      </c>
+      <c r="K6" s="86" t="s">
+        <v>433</v>
+      </c>
+      <c r="L6" s="86">
+        <v>0</v>
+      </c>
+      <c r="M6" s="86">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+    </row>
+    <row r="7" spans="1:26" ht="41" customHeight="1" thickBot="1">
+      <c r="A7" s="86">
+        <v>4</v>
+      </c>
+      <c r="B7" s="84" t="s">
+        <v>440</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>424</v>
+      </c>
+      <c r="D7" s="86">
+        <v>5</v>
+      </c>
+      <c r="E7" s="95" t="s">
+        <v>424</v>
+      </c>
+      <c r="F7" s="86">
+        <v>5</v>
+      </c>
+      <c r="G7" s="96" t="s">
+        <v>426</v>
+      </c>
+      <c r="H7" s="86">
+        <v>3</v>
+      </c>
+      <c r="I7" s="96" t="s">
+        <v>427</v>
+      </c>
+      <c r="J7" s="86">
+        <v>3</v>
+      </c>
+      <c r="K7" s="86" t="s">
+        <v>410</v>
+      </c>
+      <c r="L7" s="86">
+        <v>0</v>
+      </c>
+      <c r="M7" s="86">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="N7" s="86" t="s">
+        <v>249</v>
+      </c>
+      <c r="O7" s="81" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="41" customHeight="1" thickBot="1">
+      <c r="A8" s="86">
+        <v>5</v>
+      </c>
+      <c r="B8" s="94" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>376</v>
+      </c>
+      <c r="D8" s="86">
+        <v>0</v>
+      </c>
+      <c r="E8" s="84" t="s">
+        <v>376</v>
+      </c>
+      <c r="F8" s="86">
+        <v>0</v>
+      </c>
+      <c r="G8" s="84" t="s">
+        <v>376</v>
+      </c>
+      <c r="H8" s="86">
+        <v>0</v>
+      </c>
+      <c r="I8" s="82" t="s">
+        <v>376</v>
+      </c>
+      <c r="J8" s="86">
+        <v>0</v>
+      </c>
+      <c r="K8" s="86" t="s">
+        <v>433</v>
+      </c>
+      <c r="L8" s="86">
+        <v>0</v>
+      </c>
+      <c r="M8" s="86">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="86" t="s">
+        <v>252</v>
+      </c>
+      <c r="O8" s="89" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="41" customHeight="1" thickBot="1">
+      <c r="A9" s="86">
         <v>6</v>
       </c>
-      <c r="E4" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="B9" s="84" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>381</v>
+      </c>
+      <c r="D9" s="86">
+        <v>5</v>
+      </c>
+      <c r="E9" s="84" t="s">
+        <v>382</v>
+      </c>
+      <c r="F9" s="86">
+        <v>5</v>
+      </c>
+      <c r="G9" s="84" t="s">
+        <v>383</v>
+      </c>
+      <c r="H9" s="86">
+        <v>3</v>
+      </c>
+      <c r="I9" s="84" t="s">
+        <v>384</v>
+      </c>
+      <c r="J9" s="86">
+        <v>3</v>
+      </c>
+      <c r="K9" s="84" t="s">
+        <v>439</v>
+      </c>
+      <c r="L9" s="86">
+        <v>3</v>
+      </c>
+      <c r="M9" s="86">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="N9" s="84" t="s">
+        <v>254</v>
+      </c>
+      <c r="O9" s="81" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="41" customHeight="1" thickBot="1">
+      <c r="A10" s="86">
+        <v>7</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>428</v>
+      </c>
+      <c r="D10" s="86">
+        <v>5</v>
+      </c>
+      <c r="E10" s="84" t="s">
+        <v>429</v>
+      </c>
+      <c r="F10" s="86">
+        <v>5</v>
+      </c>
+      <c r="G10" s="84" t="s">
+        <v>410</v>
+      </c>
+      <c r="H10" s="86">
+        <v>0</v>
+      </c>
+      <c r="I10" s="82" t="s">
+        <v>410</v>
+      </c>
+      <c r="J10" s="86">
+        <v>0</v>
+      </c>
+      <c r="K10" s="86" t="s">
+        <v>410</v>
+      </c>
+      <c r="L10" s="86">
+        <v>0</v>
+      </c>
+      <c r="M10" s="86">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N10" s="81" t="s">
+        <v>430</v>
+      </c>
+      <c r="O10" s="81" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="75.8" thickBot="1">
+      <c r="A11" s="83">
+        <v>8</v>
+      </c>
+      <c r="B11" s="86" t="s">
+        <v>399</v>
+      </c>
+      <c r="C11" s="84" t="s">
+        <v>396</v>
+      </c>
+      <c r="D11" s="86">
+        <v>4</v>
+      </c>
+      <c r="E11" s="84" t="s">
+        <v>397</v>
+      </c>
+      <c r="F11" s="86">
+        <v>4</v>
+      </c>
+      <c r="G11" s="84"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N11" s="81" t="s">
+        <v>398</v>
+      </c>
+      <c r="O11" s="81" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="41" customHeight="1" thickBot="1">
+      <c r="A12" s="86">
+        <v>9</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>434</v>
+      </c>
+      <c r="D12" s="86">
+        <v>5</v>
+      </c>
+      <c r="E12" s="84" t="s">
+        <v>434</v>
+      </c>
+      <c r="F12" s="86">
+        <v>5</v>
+      </c>
+      <c r="G12" s="86" t="s">
+        <v>376</v>
+      </c>
+      <c r="H12" s="86">
+        <v>0</v>
+      </c>
+      <c r="I12" s="86" t="s">
+        <v>376</v>
+      </c>
+      <c r="J12" s="86">
+        <v>0</v>
+      </c>
+      <c r="K12" s="86" t="s">
+        <v>433</v>
+      </c>
+      <c r="L12" s="86">
+        <v>0</v>
+      </c>
+      <c r="M12" s="86">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N12" s="86" t="s">
+        <v>263</v>
+      </c>
+      <c r="O12" s="81" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="41" customHeight="1" thickBot="1">
+      <c r="A13" s="86">
+        <v>10</v>
+      </c>
+      <c r="B13" s="84" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="83"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="84" t="s">
+        <v>437</v>
+      </c>
+      <c r="H13" s="86">
+        <v>3</v>
+      </c>
+      <c r="I13" s="84" t="s">
+        <v>438</v>
+      </c>
+      <c r="J13" s="86">
+        <v>3</v>
+      </c>
+      <c r="K13" s="86" t="s">
+        <v>433</v>
+      </c>
+      <c r="L13" s="86">
+        <v>0</v>
+      </c>
+      <c r="M13" s="86">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11">
-        <f t="shared" ref="M4:M13" si="0">L4+J4+H4+F4+D4</f>
+      <c r="N13" s="81" t="s">
+        <v>258</v>
+      </c>
+      <c r="O13" s="81" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="41" customHeight="1" thickBot="1">
+      <c r="A14" s="86">
+        <v>11</v>
+      </c>
+      <c r="B14" s="84" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>402</v>
+      </c>
+      <c r="D14" s="86">
+        <v>4</v>
+      </c>
+      <c r="E14" s="84" t="s">
+        <v>403</v>
+      </c>
+      <c r="F14" s="86">
+        <v>5</v>
+      </c>
+      <c r="G14" s="84" t="s">
+        <v>400</v>
+      </c>
+      <c r="H14" s="86">
+        <v>3</v>
+      </c>
+      <c r="I14" s="84" t="s">
+        <v>401</v>
+      </c>
+      <c r="J14" s="86">
+        <v>3</v>
+      </c>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N14" s="81" t="s">
+        <v>260</v>
+      </c>
+      <c r="O14" s="81" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="41" customHeight="1" thickBot="1">
+      <c r="A15" s="86">
         <v>12</v>
       </c>
-      <c r="N4" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="O4" s="50" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>250</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="B15" s="84" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" s="84" t="s">
+        <v>370</v>
+      </c>
+      <c r="D15" s="86">
+        <v>5</v>
+      </c>
+      <c r="E15" s="84" t="s">
+        <v>371</v>
+      </c>
+      <c r="F15" s="86">
+        <v>4</v>
+      </c>
+      <c r="G15" s="84" t="s">
+        <v>372</v>
+      </c>
+      <c r="H15" s="86">
+        <v>3</v>
+      </c>
+      <c r="I15" s="84" t="s">
+        <v>373</v>
+      </c>
+      <c r="J15" s="86">
+        <v>3</v>
+      </c>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86">
+        <v>0</v>
+      </c>
+      <c r="M15" s="86">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N15" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="O15" s="90" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="41" customHeight="1" thickBot="1">
+      <c r="A16" s="86">
+        <v>13</v>
+      </c>
+      <c r="B16" s="84" t="s">
+        <v>448</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>435</v>
+      </c>
+      <c r="D16" s="86">
+        <v>5</v>
+      </c>
+      <c r="E16" s="84" t="s">
+        <v>436</v>
+      </c>
+      <c r="F16" s="86">
+        <v>5</v>
+      </c>
+      <c r="G16" s="84" t="s">
+        <v>446</v>
+      </c>
+      <c r="H16" s="86">
+        <v>3</v>
+      </c>
+      <c r="I16" s="84" t="s">
+        <v>447</v>
+      </c>
+      <c r="J16" s="86">
+        <v>3</v>
+      </c>
+      <c r="K16" s="86" t="s">
+        <v>410</v>
+      </c>
+      <c r="L16" s="86">
+        <v>0</v>
+      </c>
+      <c r="M16" s="86">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="N16" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="O16" s="81" t="s">
+        <v>268</v>
+      </c>
+      <c r="P16" s="79"/>
+    </row>
+    <row r="17" spans="1:15" ht="45.7" thickBot="1">
+      <c r="A17" s="86">
+        <v>14</v>
+      </c>
+      <c r="B17" s="84" t="s">
+        <v>269</v>
+      </c>
+      <c r="C17" s="84" t="s">
+        <v>416</v>
+      </c>
+      <c r="D17" s="86">
+        <v>5</v>
+      </c>
+      <c r="E17" s="84" t="s">
+        <v>417</v>
+      </c>
+      <c r="F17" s="86">
+        <v>5</v>
+      </c>
+      <c r="G17" s="84" t="s">
+        <v>418</v>
+      </c>
+      <c r="H17" s="86">
+        <v>3</v>
+      </c>
+      <c r="I17" s="84" t="s">
+        <v>418</v>
+      </c>
+      <c r="J17" s="86">
+        <v>3</v>
+      </c>
+      <c r="K17" s="86" t="s">
+        <v>410</v>
+      </c>
+      <c r="L17" s="86">
+        <v>0</v>
+      </c>
+      <c r="M17" s="86">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="N17" s="82" t="s">
+        <v>270</v>
+      </c>
+      <c r="O17" s="81" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="41" customHeight="1" thickBot="1">
+      <c r="A18" s="86">
+        <v>15</v>
+      </c>
+      <c r="B18" s="84" t="s">
+        <v>271</v>
+      </c>
+      <c r="C18" s="84"/>
+      <c r="D18" s="86">
         <v>6</v>
       </c>
-      <c r="E5" s="52" t="s">
-        <v>251</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="E18" s="84"/>
+      <c r="F18" s="86">
         <v>6</v>
       </c>
-      <c r="G5" s="52" t="s">
-        <v>252</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="G18" s="84"/>
+      <c r="H18" s="86">
         <v>3</v>
       </c>
-      <c r="I5" s="52" t="s">
-        <v>253</v>
-      </c>
-      <c r="J5" s="5">
+      <c r="I18" s="84"/>
+      <c r="J18" s="86">
         <v>3</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11">
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="N5" s="53" t="s">
-        <v>254</v>
-      </c>
-      <c r="O5" s="50" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A6" s="5">
+      <c r="N18" s="81" t="s">
+        <v>272</v>
+      </c>
+      <c r="O18" s="81" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="60.75" thickBot="1">
+      <c r="A19" s="86">
+        <v>16</v>
+      </c>
+      <c r="B19" s="84" t="s">
+        <v>273</v>
+      </c>
+      <c r="C19" s="84" t="s">
+        <v>449</v>
+      </c>
+      <c r="D19" s="86">
+        <v>4</v>
+      </c>
+      <c r="E19" s="84" t="s">
+        <v>450</v>
+      </c>
+      <c r="F19" s="86">
+        <v>4</v>
+      </c>
+      <c r="G19" s="84" t="s">
+        <v>451</v>
+      </c>
+      <c r="H19" s="86">
         <v>3</v>
       </c>
-      <c r="B6" s="50" t="s">
-        <v>255</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="D6" s="5">
-        <v>6</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="F6" s="5">
-        <v>5</v>
-      </c>
-      <c r="G6" s="54" t="s">
-        <v>257</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="I19" s="84" t="s">
+        <v>452</v>
+      </c>
+      <c r="J19" s="86">
         <v>3</v>
       </c>
-      <c r="I6" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="J6" s="5">
+      <c r="K19" s="86" t="s">
+        <v>453</v>
+      </c>
+      <c r="L19" s="86">
         <v>3</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11">
+      <c r="M19" s="86">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="N6" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="O6" s="50" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>259</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="N19" s="82" t="s">
+        <v>454</v>
+      </c>
+      <c r="O19" s="81" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="120.9" thickBot="1">
+      <c r="A20" s="86">
+        <v>17</v>
+      </c>
+      <c r="B20" s="84" t="s">
+        <v>280</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>419</v>
+      </c>
+      <c r="D20" s="86">
+        <v>5</v>
+      </c>
+      <c r="E20" s="84" t="s">
+        <v>420</v>
+      </c>
+      <c r="F20" s="86">
+        <v>5</v>
+      </c>
+      <c r="G20" s="84" t="s">
+        <v>421</v>
+      </c>
+      <c r="H20" s="86">
+        <v>3</v>
+      </c>
+      <c r="I20" s="86" t="s">
+        <v>422</v>
+      </c>
+      <c r="J20" s="86">
+        <v>3</v>
+      </c>
+      <c r="K20" s="86" t="s">
+        <v>410</v>
+      </c>
+      <c r="L20" s="86">
+        <v>0</v>
+      </c>
+      <c r="M20" s="86">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="N20" s="81" t="s">
+        <v>425</v>
+      </c>
+      <c r="O20" s="86" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="41" customHeight="1" thickBot="1">
+      <c r="A21" s="86">
+        <v>18</v>
+      </c>
+      <c r="B21" s="84" t="s">
+        <v>276</v>
+      </c>
+      <c r="C21" s="84"/>
+      <c r="D21" s="86">
         <v>6</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="E21" s="84"/>
+      <c r="F21" s="86">
         <v>6</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="H7" s="5">
+      <c r="G21" s="84"/>
+      <c r="H21" s="86">
         <v>3</v>
       </c>
-      <c r="I7" s="57" t="s">
-        <v>263</v>
-      </c>
-      <c r="J7" s="5">
+      <c r="I21" s="84"/>
+      <c r="J21" s="86">
         <v>3</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11">
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="N7" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="O7" s="56" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="5">
+      <c r="N21" s="81" t="s">
+        <v>277</v>
+      </c>
+      <c r="O21" s="81" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="41" customHeight="1" thickBot="1">
+      <c r="A22" s="86">
+        <v>19</v>
+      </c>
+      <c r="B22" s="84" t="s">
+        <v>357</v>
+      </c>
+      <c r="C22" s="84"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+    </row>
+    <row r="23" spans="1:15" ht="41" customHeight="1" thickBot="1">
+      <c r="A23" s="86">
+        <v>20</v>
+      </c>
+      <c r="B23" s="84" t="s">
+        <v>358</v>
+      </c>
+      <c r="C23" s="84"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+    </row>
+    <row r="24" spans="1:15" ht="41" customHeight="1" thickBot="1">
+      <c r="A24" s="86">
+        <v>21</v>
+      </c>
+      <c r="B24" s="84" t="s">
+        <v>359</v>
+      </c>
+      <c r="C24" s="84"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+    </row>
+    <row r="25" spans="1:15" ht="41" customHeight="1" thickBot="1">
+      <c r="A25" s="86">
+        <v>22</v>
+      </c>
+      <c r="B25" s="84" t="s">
+        <v>360</v>
+      </c>
+      <c r="C25" s="84" t="s">
+        <v>441</v>
+      </c>
+      <c r="D25" s="86">
+        <v>4</v>
+      </c>
+      <c r="E25" s="84" t="s">
+        <v>442</v>
+      </c>
+      <c r="F25" s="86">
+        <v>4</v>
+      </c>
+      <c r="G25" s="83" t="s">
+        <v>443</v>
+      </c>
+      <c r="H25" s="86">
+        <v>3</v>
+      </c>
+      <c r="I25" s="83" t="s">
+        <v>443</v>
+      </c>
+      <c r="J25" s="86">
+        <v>3</v>
+      </c>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+    </row>
+    <row r="26" spans="1:15" ht="41" customHeight="1" thickBot="1">
+      <c r="A26" s="86">
+        <v>23</v>
+      </c>
+      <c r="B26" s="84" t="s">
+        <v>361</v>
+      </c>
+      <c r="C26" s="84"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="84" t="s">
+        <v>439</v>
+      </c>
+      <c r="L26" s="86">
+        <v>3</v>
+      </c>
+      <c r="M26" s="86">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N26" s="83" t="s">
+        <v>279</v>
+      </c>
+      <c r="O26" s="81" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="41" customHeight="1" thickBot="1">
+      <c r="A27" s="86">
+        <v>24</v>
+      </c>
+      <c r="B27" s="84" t="s">
+        <v>362</v>
+      </c>
+      <c r="C27" s="84" t="s">
+        <v>404</v>
+      </c>
+      <c r="D27" s="86">
         <v>5</v>
       </c>
-      <c r="B8" s="50" t="s">
-        <v>265</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="D8" s="5">
-        <v>6</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>267</v>
-      </c>
-      <c r="F8" s="5">
-        <v>6</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="E27" s="84" t="s">
+        <v>405</v>
+      </c>
+      <c r="F27" s="86">
+        <v>5</v>
+      </c>
+      <c r="G27" s="83" t="s">
+        <v>406</v>
+      </c>
+      <c r="H27" s="86">
         <v>3</v>
       </c>
-      <c r="I8" s="58" t="s">
-        <v>269</v>
-      </c>
-      <c r="J8" s="5">
+      <c r="I27" s="83" t="s">
+        <v>407</v>
+      </c>
+      <c r="J27" s="86">
         <v>3</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11">
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="N27" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="O27" s="81" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="41" customHeight="1" thickBot="1">
+      <c r="A28" s="86">
+        <v>25</v>
+      </c>
+      <c r="B28" s="84" t="s">
+        <v>363</v>
+      </c>
+      <c r="C28" s="84"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="83" t="s">
+        <v>377</v>
+      </c>
+      <c r="H28" s="86">
+        <v>3</v>
+      </c>
+      <c r="I28" s="83" t="s">
+        <v>378</v>
+      </c>
+      <c r="J28" s="86">
+        <v>3</v>
+      </c>
+      <c r="K28" s="84" t="s">
+        <v>451</v>
+      </c>
+      <c r="L28" s="86">
+        <v>3</v>
+      </c>
+      <c r="M28" s="86">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N28" s="81"/>
+      <c r="O28" s="81" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="41" customHeight="1" thickBot="1">
+      <c r="A29" s="86">
+        <v>26</v>
+      </c>
+      <c r="B29" s="84" t="s">
+        <v>364</v>
+      </c>
+      <c r="C29" s="84" t="s">
+        <v>444</v>
+      </c>
+      <c r="D29" s="86">
+        <v>4</v>
+      </c>
+      <c r="E29" s="84" t="s">
+        <v>445</v>
+      </c>
+      <c r="F29" s="86">
+        <v>4</v>
+      </c>
+      <c r="G29" s="84" t="s">
+        <v>446</v>
+      </c>
+      <c r="H29" s="86">
+        <v>3</v>
+      </c>
+      <c r="I29" s="84" t="s">
+        <v>447</v>
+      </c>
+      <c r="J29" s="86">
+        <v>3</v>
+      </c>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
+    </row>
+    <row r="30" spans="1:15" ht="41" customHeight="1" thickBot="1">
+      <c r="A30" s="86">
+        <v>27</v>
+      </c>
+      <c r="B30" s="84" t="s">
+        <v>365</v>
+      </c>
+      <c r="C30" s="84" t="s">
+        <v>393</v>
+      </c>
+      <c r="D30" s="86">
+        <v>4</v>
+      </c>
+      <c r="E30" s="84" t="s">
+        <v>394</v>
+      </c>
+      <c r="F30" s="86">
+        <v>5</v>
+      </c>
+      <c r="G30" s="84" t="s">
+        <v>400</v>
+      </c>
+      <c r="H30" s="86">
+        <v>3</v>
+      </c>
+      <c r="I30" s="84" t="s">
+        <v>401</v>
+      </c>
+      <c r="J30" s="86">
+        <v>3</v>
+      </c>
+      <c r="K30" s="86" t="s">
+        <v>380</v>
+      </c>
+      <c r="L30" s="86">
+        <v>3</v>
+      </c>
+      <c r="M30" s="86">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="N8" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="O8" s="50" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="5">
+      <c r="N30" s="81"/>
+      <c r="O30" s="81"/>
+    </row>
+    <row r="31" spans="1:15" ht="41" customHeight="1" thickBot="1">
+      <c r="A31" s="86">
+        <v>28</v>
+      </c>
+      <c r="B31" s="84" t="s">
+        <v>366</v>
+      </c>
+      <c r="C31" s="84" t="s">
+        <v>389</v>
+      </c>
+      <c r="D31" s="86">
+        <v>5</v>
+      </c>
+      <c r="E31" s="84" t="s">
+        <v>390</v>
+      </c>
+      <c r="F31" s="86">
+        <v>5</v>
+      </c>
+      <c r="G31" s="84" t="s">
+        <v>391</v>
+      </c>
+      <c r="H31" s="86">
+        <v>3</v>
+      </c>
+      <c r="I31" s="84" t="s">
+        <v>392</v>
+      </c>
+      <c r="J31" s="86">
+        <v>3</v>
+      </c>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="N31" s="81" t="s">
+        <v>395</v>
+      </c>
+      <c r="O31" s="81"/>
+    </row>
+    <row r="32" spans="1:15" ht="41" customHeight="1" thickBot="1">
+      <c r="A32" s="86">
+        <v>29</v>
+      </c>
+      <c r="B32" s="84" t="s">
+        <v>367</v>
+      </c>
+      <c r="C32" s="84"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="85" t="s">
+        <v>379</v>
+      </c>
+      <c r="L32" s="86">
+        <v>3</v>
+      </c>
+      <c r="M32" s="86">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N32" s="81"/>
+      <c r="O32" s="81"/>
+    </row>
+    <row r="33" spans="1:15" ht="45.7" thickBot="1">
+      <c r="A33" s="86">
+        <v>30</v>
+      </c>
+      <c r="B33" s="84" t="s">
+        <v>375</v>
+      </c>
+      <c r="C33" s="84" t="s">
+        <v>409</v>
+      </c>
+      <c r="D33" s="86">
+        <v>0</v>
+      </c>
+      <c r="E33" s="84" t="s">
+        <v>410</v>
+      </c>
+      <c r="F33" s="86">
+        <v>0</v>
+      </c>
+      <c r="G33" s="83" t="s">
+        <v>414</v>
+      </c>
+      <c r="H33" s="86">
+        <v>12</v>
+      </c>
+      <c r="I33" s="94" t="s">
+        <v>412</v>
+      </c>
+      <c r="J33" s="86">
         <v>6</v>
       </c>
-      <c r="B9" s="50" t="s">
-        <v>271</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="K33" s="86" t="s">
+        <v>413</v>
+      </c>
+      <c r="L33" s="86">
         <v>6</v>
       </c>
-      <c r="E9" s="58" t="s">
-        <v>273</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="M33" s="86">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N33" s="84" t="s">
+        <v>415</v>
+      </c>
+      <c r="O33" s="86" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="41" customHeight="1" thickBot="1">
+      <c r="A34" s="86">
+        <v>31</v>
+      </c>
+      <c r="B34" s="84" t="s">
+        <v>408</v>
+      </c>
+      <c r="C34" s="84" t="s">
+        <v>409</v>
+      </c>
+      <c r="D34" s="86">
+        <v>0</v>
+      </c>
+      <c r="E34" s="84" t="s">
+        <v>410</v>
+      </c>
+      <c r="F34" s="86">
+        <v>0</v>
+      </c>
+      <c r="G34" s="83" t="s">
+        <v>377</v>
+      </c>
+      <c r="H34" s="86">
+        <v>3</v>
+      </c>
+      <c r="I34" s="83" t="s">
+        <v>411</v>
+      </c>
+      <c r="J34" s="86">
         <v>6</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="K34" s="86" t="s">
+        <v>423</v>
+      </c>
+      <c r="L34" s="86">
+        <v>6</v>
+      </c>
+      <c r="M34" s="86">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N34" s="81"/>
+      <c r="O34" s="81" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="41" customHeight="1" thickBot="1">
+      <c r="A35" s="86">
+        <v>32</v>
+      </c>
+      <c r="B35" s="84" t="s">
+        <v>368</v>
+      </c>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="86">
+        <v>18</v>
+      </c>
+      <c r="I35" s="84"/>
+      <c r="J35" s="86">
+        <v>18</v>
+      </c>
+      <c r="K35" s="86"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="86">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="41" customHeight="1" thickBot="1">
+      <c r="A36" s="91">
+        <v>33</v>
+      </c>
+      <c r="B36" s="84" t="s">
+        <v>385</v>
+      </c>
+      <c r="C36" s="83" t="s">
+        <v>386</v>
+      </c>
+      <c r="D36" s="86">
+        <v>6</v>
+      </c>
+      <c r="E36" s="83" t="s">
+        <v>387</v>
+      </c>
+      <c r="F36" s="83">
+        <v>6</v>
+      </c>
+      <c r="G36" s="83" t="s">
+        <v>388</v>
+      </c>
+      <c r="H36" s="83">
+        <v>2</v>
+      </c>
+      <c r="I36" s="83" t="s">
+        <v>388</v>
+      </c>
+      <c r="J36" s="83">
+        <v>2</v>
+      </c>
+      <c r="K36" s="83"/>
+      <c r="L36" s="83"/>
+      <c r="M36" s="86">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="N36" s="93"/>
+      <c r="O36" s="92" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="12.9">
+      <c r="G38" s="47" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="12.9">
+      <c r="A40" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="58" t="s">
-        <v>275</v>
-      </c>
-      <c r="J9" s="5">
+      <c r="E40" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="N9" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="O9" s="50" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="5">
+      <c r="G40" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="K40" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="50" t="s">
-        <v>277</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="L40" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="M40" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="N40" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="O40" s="53"/>
+    </row>
+    <row r="41" spans="1:15" ht="12.9">
+      <c r="A41" s="54">
+        <v>1</v>
+      </c>
+      <c r="B41" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="C41" s="56" t="s">
+        <v>290</v>
+      </c>
+      <c r="D41" s="57">
+        <v>10</v>
+      </c>
+      <c r="E41" s="58"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="57">
+        <f t="shared" ref="M41:M66" si="1">L41+J41+H41+F41+D41</f>
+        <v>10</v>
+      </c>
+      <c r="N41" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="O41" s="56" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="12.9">
+      <c r="A42" s="54">
+        <v>2</v>
+      </c>
+      <c r="B42" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="C42" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="D42" s="62">
         <v>6</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="F10" s="5">
-        <v>5</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="E42" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="F42" s="62">
+        <v>6</v>
+      </c>
+      <c r="G42" s="61" t="s">
+        <v>293</v>
+      </c>
+      <c r="H42" s="62">
         <v>3</v>
       </c>
-      <c r="I10" s="58" t="s">
-        <v>269</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="I42" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="J42" s="62">
         <v>3</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="N10" s="53" t="s">
-        <v>279</v>
-      </c>
-      <c r="O10" s="50" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="5">
-        <v>8</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>280</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="D11" s="5">
-        <v>6</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="F11" s="5">
-        <v>5</v>
-      </c>
-      <c r="G11" s="59" t="s">
-        <v>282</v>
-      </c>
-      <c r="H11" s="5">
-        <v>3</v>
-      </c>
-      <c r="I11" s="59" t="s">
-        <v>282</v>
-      </c>
-      <c r="J11" s="5">
-        <v>3</v>
-      </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="N11" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="O11" s="50" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="5">
-        <v>9</v>
-      </c>
-      <c r="B12" s="60" t="s">
-        <v>284</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="D12" s="5">
-        <v>6</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="F12" s="5">
-        <v>6</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="H12" s="5">
-        <v>3</v>
-      </c>
-      <c r="I12" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="J12" s="5">
-        <v>3</v>
-      </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="N12" s="53" t="s">
-        <v>285</v>
-      </c>
-      <c r="O12" s="21" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="5">
-        <v>10</v>
-      </c>
-      <c r="B13" s="61" t="s">
-        <v>286</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="D13" s="5">
-        <v>6</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="F13" s="5">
-        <v>6</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="N13" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="O13" s="61" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="5">
-        <v>11</v>
-      </c>
-      <c r="B14" s="61" t="s">
-        <v>289</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="D14" s="5">
-        <v>6</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="F14" s="5">
-        <v>6</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="H14" s="5">
-        <v>3</v>
-      </c>
-      <c r="I14" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="J14" s="5">
-        <v>3</v>
-      </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="O14" s="62" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="5">
-        <v>12</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>291</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="D15" s="5">
-        <v>5</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="F15" s="5">
-        <v>6</v>
-      </c>
-      <c r="G15" s="59" t="s">
-        <v>293</v>
-      </c>
-      <c r="H15" s="5">
-        <v>3</v>
-      </c>
-      <c r="I15" s="63" t="s">
-        <v>293</v>
-      </c>
-      <c r="J15" s="5">
-        <v>3</v>
-      </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11">
-        <f t="shared" ref="M15:M28" si="1">L15+J15+H15+F15+D15</f>
-        <v>17</v>
-      </c>
-      <c r="N15" s="64" t="s">
-        <v>294</v>
-      </c>
-      <c r="O15" s="50" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="5">
-        <v>13</v>
-      </c>
-      <c r="B16" s="65" t="s">
-        <v>295</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="D16" s="5">
-        <v>6</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="F16" s="5">
-        <v>6</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="H16" s="5">
-        <v>3</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="J16" s="5">
-        <v>3</v>
-      </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11">
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="57">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="N16" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="O16" s="50" t="s">
-        <v>301</v>
-      </c>
-      <c r="P16" s="50"/>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A17" s="5">
-        <v>14</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>302</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="N42" s="64" t="s">
+        <v>247</v>
+      </c>
+      <c r="O42" s="65" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="12.9">
+      <c r="A43" s="54">
+        <v>3</v>
+      </c>
+      <c r="B43" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="C43" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="D43" s="62">
         <v>6</v>
       </c>
-      <c r="E17" s="57" t="s">
-        <v>304</v>
-      </c>
-      <c r="F17" s="5">
+      <c r="E43" s="61" t="s">
+        <v>296</v>
+      </c>
+      <c r="F43" s="62">
         <v>6</v>
       </c>
-      <c r="G17" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="H17" s="5">
+      <c r="G43" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="H43" s="62">
         <v>3</v>
       </c>
-      <c r="I17" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="J17" s="5">
+      <c r="I43" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="J43" s="62">
         <v>3</v>
       </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11">
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="57">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="N17" s="64" t="s">
-        <v>307</v>
-      </c>
-      <c r="O17" s="50" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A18" s="5">
-        <v>15</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>308</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="N43" s="65" t="s">
+        <v>249</v>
+      </c>
+      <c r="O43" s="65" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="12.9">
+      <c r="A44" s="54">
+        <v>4</v>
+      </c>
+      <c r="B44" s="60" t="s">
+        <v>253</v>
+      </c>
+      <c r="C44" s="65" t="s">
+        <v>298</v>
+      </c>
+      <c r="D44" s="62">
         <v>6</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="E44" s="65" t="s">
+        <v>299</v>
+      </c>
+      <c r="F44" s="62">
         <v>6</v>
       </c>
-      <c r="G18" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="H18" s="5">
+      <c r="G44" s="65" t="s">
+        <v>300</v>
+      </c>
+      <c r="H44" s="62">
         <v>3</v>
       </c>
-      <c r="I18" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="J18" s="5">
+      <c r="I44" s="65" t="s">
+        <v>301</v>
+      </c>
+      <c r="J44" s="62">
         <v>3</v>
       </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11">
+      <c r="K44" s="63"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="57">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="N18" s="53" t="s">
-        <v>311</v>
-      </c>
-      <c r="O18" s="50" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="26.35">
-      <c r="A19" s="5">
-        <v>16</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>312</v>
-      </c>
-      <c r="C19" s="66" t="s">
-        <v>313</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="N44" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="O44" s="65" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="12.9">
+      <c r="A45" s="54">
+        <v>5</v>
+      </c>
+      <c r="B45" s="60" t="s">
+        <v>255</v>
+      </c>
+      <c r="C45" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="D45" s="62">
         <v>6</v>
       </c>
-      <c r="E19" s="67" t="s">
-        <v>314</v>
-      </c>
-      <c r="F19" s="5">
+      <c r="E45" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="F45" s="62">
         <v>6</v>
       </c>
-      <c r="G19" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="H19" s="5">
+      <c r="G45" s="65" t="s">
+        <v>300</v>
+      </c>
+      <c r="H45" s="62">
         <v>3</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="J19" s="5">
+      <c r="I45" s="65" t="s">
+        <v>301</v>
+      </c>
+      <c r="J45" s="62">
         <v>3</v>
       </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11">
+      <c r="K45" s="63"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="57">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="N19" s="64" t="s">
-        <v>317</v>
-      </c>
-      <c r="O19" s="50" t="s">
+      <c r="N45" s="65" t="s">
+        <v>256</v>
+      </c>
+      <c r="O45" s="65" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="12.9">
+      <c r="A46" s="54">
+        <v>6</v>
+      </c>
+      <c r="B46" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="C46" s="65" t="s">
+        <v>303</v>
+      </c>
+      <c r="D46" s="62">
+        <v>10</v>
+      </c>
+      <c r="E46" s="66"/>
+      <c r="F46" s="62">
+        <v>5</v>
+      </c>
+      <c r="G46" s="67"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="57">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="N46" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="O46" s="65" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="12.9">
+      <c r="A47" s="54">
+        <v>7</v>
+      </c>
+      <c r="B47" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="C47" s="65" t="s">
+        <v>304</v>
+      </c>
+      <c r="D47" s="62">
+        <v>6</v>
+      </c>
+      <c r="E47" s="65" t="s">
+        <v>304</v>
+      </c>
+      <c r="F47" s="62">
+        <v>5</v>
+      </c>
+      <c r="G47" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="H47" s="62">
+        <v>3</v>
+      </c>
+      <c r="I47" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="J47" s="62">
+        <v>3</v>
+      </c>
+      <c r="K47" s="63"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="57">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="N47" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="O47" s="65" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="12.9">
+      <c r="A48" s="54">
+        <v>8</v>
+      </c>
+      <c r="B48" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="C48" s="65" t="s">
+        <v>306</v>
+      </c>
+      <c r="D48" s="62">
+        <v>5</v>
+      </c>
+      <c r="E48" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="F48" s="62">
+        <v>5</v>
+      </c>
+      <c r="G48" s="67"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="57">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N48" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="O48" s="65" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="12.9">
+      <c r="A49" s="54">
+        <v>9</v>
+      </c>
+      <c r="B49" s="60" t="s">
+        <v>262</v>
+      </c>
+      <c r="C49" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="D49" s="62">
+        <v>10</v>
+      </c>
+      <c r="E49" s="67"/>
+      <c r="F49" s="62">
+        <v>6</v>
+      </c>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="57">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="N49" s="65" t="s">
+        <v>263</v>
+      </c>
+      <c r="O49" s="65" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="12.9">
+      <c r="A50" s="54">
+        <v>10</v>
+      </c>
+      <c r="B50" s="60" t="s">
+        <v>264</v>
+      </c>
+      <c r="C50" s="69" t="s">
+        <v>310</v>
+      </c>
+      <c r="D50" s="62">
+        <v>6</v>
+      </c>
+      <c r="E50" s="69" t="s">
+        <v>311</v>
+      </c>
+      <c r="F50" s="62">
+        <v>6</v>
+      </c>
+      <c r="G50" s="69" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="14">
-      <c r="A20" s="5">
-        <v>17</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>318</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="12"/>
-      <c r="O20" s="50" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="26.35">
-      <c r="A21" s="5">
-        <v>18</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>319</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="D21" s="5">
-        <v>6</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="F21" s="5">
-        <v>6</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="H21" s="5">
+      <c r="H50" s="62">
         <v>3</v>
       </c>
-      <c r="I21" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="J21" s="5">
+      <c r="I50" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="J50" s="62">
         <v>3</v>
       </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11">
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="57">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="N21" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="O21" s="50" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="14">
-      <c r="A22" s="5">
-        <v>19</v>
-      </c>
-      <c r="B22" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="N50" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="O50" s="71" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="12.9">
+      <c r="A51" s="54">
+        <v>11</v>
+      </c>
+      <c r="B51" s="72" t="s">
+        <v>266</v>
+      </c>
+      <c r="C51" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="D51" s="62">
         <v>6</v>
       </c>
-      <c r="E22" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="F22" s="5">
+      <c r="E51" s="65" t="s">
+        <v>315</v>
+      </c>
+      <c r="F51" s="62">
         <v>6</v>
       </c>
-      <c r="G22" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="H22" s="5">
+      <c r="G51" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="H51" s="62">
         <v>3</v>
       </c>
-      <c r="I22" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="J22" s="5">
+      <c r="I51" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="J51" s="62">
         <v>3</v>
       </c>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11">
+      <c r="K51" s="63"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="57">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="N22" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="O22" s="61" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="14">
-      <c r="A23" s="5">
-        <v>20</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>331</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="D23" s="5">
-        <v>5</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="F23" s="5">
+      <c r="N51" s="65" t="s">
+        <v>265</v>
+      </c>
+      <c r="O51" s="65" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="12.9">
+      <c r="A52" s="54">
+        <v>12</v>
+      </c>
+      <c r="B52" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="C52" s="65" t="s">
+        <v>318</v>
+      </c>
+      <c r="D52" s="62">
         <v>6</v>
       </c>
-      <c r="G23" s="59" t="s">
-        <v>293</v>
-      </c>
-      <c r="H23" s="5">
+      <c r="E52" s="65" t="s">
+        <v>319</v>
+      </c>
+      <c r="F52" s="62">
+        <v>6</v>
+      </c>
+      <c r="G52" s="65" t="s">
+        <v>320</v>
+      </c>
+      <c r="H52" s="62">
         <v>3</v>
       </c>
-      <c r="I23" s="63" t="s">
-        <v>293</v>
-      </c>
-      <c r="J23" s="5">
+      <c r="I52" s="65" t="s">
+        <v>321</v>
+      </c>
+      <c r="J52" s="62">
         <v>3</v>
       </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="N23" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="O23" s="50" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="12.9">
-      <c r="A24" s="5">
-        <v>21</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="D24" s="5">
-        <v>6</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="F24" s="5">
-        <v>6</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="H24" s="5">
-        <v>3</v>
-      </c>
-      <c r="I24" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="J24" s="5">
-        <v>3</v>
-      </c>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11">
+      <c r="K52" s="63"/>
+      <c r="L52" s="63"/>
+      <c r="M52" s="57">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="N24" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="O24" s="21" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="12.9">
-      <c r="A25" s="5">
-        <v>22</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="N52" s="73" t="s">
+        <v>322</v>
+      </c>
+      <c r="O52" s="65" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="12.9">
+      <c r="A53" s="54">
+        <v>13</v>
+      </c>
+      <c r="B53" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="C53" s="65" t="s">
+        <v>323</v>
+      </c>
+      <c r="D53" s="62">
         <v>6</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="F25" s="5">
+      <c r="E53" s="65" t="s">
+        <v>323</v>
+      </c>
+      <c r="F53" s="62">
         <v>6</v>
       </c>
-      <c r="G25" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="H25" s="5">
+      <c r="G53" s="65" t="s">
+        <v>324</v>
+      </c>
+      <c r="H53" s="62">
         <v>3</v>
       </c>
-      <c r="I25" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="J25" s="5">
+      <c r="I53" s="65" t="s">
+        <v>325</v>
+      </c>
+      <c r="J53" s="62">
         <v>3</v>
       </c>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11">
+      <c r="K53" s="63"/>
+      <c r="L53" s="63"/>
+      <c r="M53" s="57">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="N25" s="12"/>
-      <c r="O25" s="21" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="12.9">
-      <c r="A26" s="5">
-        <v>23</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="N53" s="64" t="s">
+        <v>326</v>
+      </c>
+      <c r="O53" s="65" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="12.9">
+      <c r="A54" s="54">
+        <v>14</v>
+      </c>
+      <c r="B54" s="60" t="s">
+        <v>273</v>
+      </c>
+      <c r="C54" s="65" t="s">
+        <v>327</v>
+      </c>
+      <c r="D54" s="62">
+        <v>10</v>
+      </c>
+      <c r="E54" s="68"/>
+      <c r="F54" s="62">
         <v>6</v>
       </c>
-      <c r="E26" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="F26" s="5">
+      <c r="G54" s="69" t="s">
+        <v>274</v>
+      </c>
+      <c r="H54" s="62">
+        <v>3</v>
+      </c>
+      <c r="I54" s="69" t="s">
+        <v>275</v>
+      </c>
+      <c r="J54" s="62">
+        <v>3</v>
+      </c>
+      <c r="K54" s="63"/>
+      <c r="L54" s="63"/>
+      <c r="M54" s="57">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="N54" s="73" t="s">
+        <v>328</v>
+      </c>
+      <c r="O54" s="65" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="12.9">
+      <c r="A55" s="54">
+        <v>15</v>
+      </c>
+      <c r="B55" s="60" t="s">
+        <v>276</v>
+      </c>
+      <c r="C55" s="65" t="s">
+        <v>329</v>
+      </c>
+      <c r="D55" s="62">
         <v>6</v>
       </c>
-      <c r="G26" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="H26" s="5">
+      <c r="E55" s="65" t="s">
+        <v>329</v>
+      </c>
+      <c r="F55" s="62">
+        <v>6</v>
+      </c>
+      <c r="G55" s="65" t="s">
+        <v>330</v>
+      </c>
+      <c r="H55" s="62">
         <v>3</v>
       </c>
-      <c r="I26" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="J26" s="5">
+      <c r="I55" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="J55" s="62">
         <v>3</v>
       </c>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11">
+      <c r="K55" s="63"/>
+      <c r="L55" s="63"/>
+      <c r="M55" s="57">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="N26" s="12"/>
-      <c r="O26" s="21" t="s">
+      <c r="N55" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="O55" s="65" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="12.9">
+      <c r="A56" s="54">
+        <v>16</v>
+      </c>
+      <c r="B56" s="60" t="s">
+        <v>278</v>
+      </c>
+      <c r="C56" s="61" t="s">
+        <v>332</v>
+      </c>
+      <c r="D56" s="62">
+        <v>6</v>
+      </c>
+      <c r="E56" s="61" t="s">
+        <v>332</v>
+      </c>
+      <c r="F56" s="62">
+        <v>6</v>
+      </c>
+      <c r="G56" s="61" t="s">
+        <v>333</v>
+      </c>
+      <c r="H56" s="62">
+        <v>3</v>
+      </c>
+      <c r="I56" s="61" t="s">
+        <v>334</v>
+      </c>
+      <c r="J56" s="62">
+        <v>3</v>
+      </c>
+      <c r="K56" s="63"/>
+      <c r="L56" s="63"/>
+      <c r="M56" s="57">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N56" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="O56" s="65" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="12.9">
+      <c r="A57" s="54">
+        <v>17</v>
+      </c>
+      <c r="B57" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="C57" s="61" t="s">
+        <v>335</v>
+      </c>
+      <c r="D57" s="62">
+        <v>6</v>
+      </c>
+      <c r="E57" s="61" t="s">
+        <v>335</v>
+      </c>
+      <c r="F57" s="62">
+        <v>6</v>
+      </c>
+      <c r="G57" s="68"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="63"/>
+      <c r="M57" s="57">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N57" s="65" t="s">
+        <v>281</v>
+      </c>
+      <c r="O57" s="65" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="12.9">
+      <c r="A58" s="54">
+        <v>18</v>
+      </c>
+      <c r="B58" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="C58" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="D58" s="62">
+        <v>6</v>
+      </c>
+      <c r="E58" s="65" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" ht="12.9">
-      <c r="A27" s="5">
+      <c r="F58" s="62">
+        <v>6</v>
+      </c>
+      <c r="G58" s="69" t="s">
+        <v>338</v>
+      </c>
+      <c r="H58" s="62">
+        <v>3</v>
+      </c>
+      <c r="I58" s="70" t="s">
+        <v>339</v>
+      </c>
+      <c r="J58" s="62">
+        <v>3</v>
+      </c>
+      <c r="K58" s="63"/>
+      <c r="L58" s="63"/>
+      <c r="M58" s="57">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N58" s="65" t="s">
+        <v>283</v>
+      </c>
+      <c r="O58" s="65" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="12.9">
+      <c r="A59" s="54">
+        <v>19</v>
+      </c>
+      <c r="B59" s="60" t="s">
+        <v>284</v>
+      </c>
+      <c r="C59" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="D59" s="62">
+        <v>6</v>
+      </c>
+      <c r="E59" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="F59" s="62">
+        <v>6</v>
+      </c>
+      <c r="G59" s="69" t="s">
+        <v>312</v>
+      </c>
+      <c r="H59" s="62">
+        <v>3</v>
+      </c>
+      <c r="I59" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="J59" s="62">
+        <v>3</v>
+      </c>
+      <c r="K59" s="63"/>
+      <c r="L59" s="63"/>
+      <c r="M59" s="57">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N59" s="66"/>
+      <c r="O59" s="65" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="12.9">
+      <c r="A60" s="54">
+        <v>20</v>
+      </c>
+      <c r="B60" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="C60" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="D60" s="62">
+        <v>6</v>
+      </c>
+      <c r="E60" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="F60" s="62">
+        <v>6</v>
+      </c>
+      <c r="G60" s="69" t="s">
+        <v>312</v>
+      </c>
+      <c r="H60" s="62">
+        <v>3</v>
+      </c>
+      <c r="I60" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="J60" s="62">
+        <v>3</v>
+      </c>
+      <c r="K60" s="63"/>
+      <c r="L60" s="63"/>
+      <c r="M60" s="57">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N60" s="66"/>
+      <c r="O60" s="65" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="12.9">
+      <c r="A61" s="54">
+        <v>21</v>
+      </c>
+      <c r="B61" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="C61" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="D61" s="62">
+        <v>6</v>
+      </c>
+      <c r="E61" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="F61" s="63"/>
+      <c r="G61" s="69" t="s">
+        <v>310</v>
+      </c>
+      <c r="H61" s="62">
+        <v>18</v>
+      </c>
+      <c r="I61" s="69" t="s">
+        <v>311</v>
+      </c>
+      <c r="J61" s="62">
+        <v>18</v>
+      </c>
+      <c r="K61" s="63"/>
+      <c r="L61" s="63"/>
+      <c r="M61" s="57">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="N61" s="66"/>
+      <c r="O61" s="65" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="12.9">
+      <c r="A62" s="54">
+        <v>22</v>
+      </c>
+      <c r="B62" s="74" t="s">
+        <v>287</v>
+      </c>
+      <c r="C62" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="D62" s="62">
+        <v>6</v>
+      </c>
+      <c r="E62" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="F62" s="63"/>
+      <c r="G62" s="65" t="s">
+        <v>340</v>
+      </c>
+      <c r="H62" s="62">
+        <v>3</v>
+      </c>
+      <c r="I62" s="65" t="s">
+        <v>341</v>
+      </c>
+      <c r="J62" s="62">
+        <v>3</v>
+      </c>
+      <c r="K62" s="69" t="s">
+        <v>288</v>
+      </c>
+      <c r="L62" s="62">
+        <v>18</v>
+      </c>
+      <c r="M62" s="57">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="N62" s="66"/>
+      <c r="O62" s="69" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="12.9">
+      <c r="A63" s="54">
+        <v>23</v>
+      </c>
+      <c r="B63" s="60" t="s">
+        <v>342</v>
+      </c>
+      <c r="C63" s="66"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="H63" s="62">
+        <v>9</v>
+      </c>
+      <c r="I63" s="65" t="s">
+        <v>344</v>
+      </c>
+      <c r="J63" s="62">
+        <v>6</v>
+      </c>
+      <c r="K63" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="L63" s="62">
+        <v>3</v>
+      </c>
+      <c r="M63" s="57">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N63" s="66"/>
+      <c r="O63" s="65" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="12.9">
+      <c r="A64" s="54">
         <v>24</v>
       </c>
-      <c r="B27" s="68" t="s">
-        <v>338</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="H27" s="5">
+      <c r="B64" s="60" t="s">
+        <v>345</v>
+      </c>
+      <c r="C64" s="65" t="s">
+        <v>346</v>
+      </c>
+      <c r="D64" s="62">
+        <v>7</v>
+      </c>
+      <c r="E64" s="65" t="s">
+        <v>347</v>
+      </c>
+      <c r="F64" s="62">
+        <v>7</v>
+      </c>
+      <c r="G64" s="69" t="s">
+        <v>348</v>
+      </c>
+      <c r="H64" s="62">
+        <v>3</v>
+      </c>
+      <c r="I64" s="69" t="s">
+        <v>349</v>
+      </c>
+      <c r="J64" s="62">
+        <v>3</v>
+      </c>
+      <c r="K64" s="66"/>
+      <c r="L64" s="66"/>
+      <c r="M64" s="57">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="N64" s="65" t="s">
+        <v>350</v>
+      </c>
+      <c r="O64" s="65" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="12.9">
+      <c r="A65" s="75">
+        <v>25</v>
+      </c>
+      <c r="B65" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="C65" s="69" t="s">
+        <v>310</v>
+      </c>
+      <c r="D65" s="62">
+        <v>6</v>
+      </c>
+      <c r="E65" s="69" t="s">
+        <v>311</v>
+      </c>
+      <c r="F65" s="62">
+        <v>6</v>
+      </c>
+      <c r="G65" s="69" t="s">
+        <v>312</v>
+      </c>
+      <c r="H65" s="62">
+        <v>3</v>
+      </c>
+      <c r="I65" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="J65" s="62">
+        <v>3</v>
+      </c>
+      <c r="K65" s="63"/>
+      <c r="L65" s="63"/>
+      <c r="M65" s="57">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I27" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="J27" s="5">
-        <v>18</v>
-      </c>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11">
+      <c r="N65" s="65" t="s">
+        <v>252</v>
+      </c>
+      <c r="O65" s="77" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="12.9">
+      <c r="A66" s="78">
+        <v>26</v>
+      </c>
+      <c r="B66" s="76" t="s">
+        <v>351</v>
+      </c>
+      <c r="C66" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="D66" s="62">
+        <v>2</v>
+      </c>
+      <c r="E66" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="F66" s="62">
+        <v>2</v>
+      </c>
+      <c r="G66" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="H66" s="62">
+        <v>3</v>
+      </c>
+      <c r="I66" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="J66" s="62">
+        <v>6</v>
+      </c>
+      <c r="K66" s="61" t="s">
+        <v>355</v>
+      </c>
+      <c r="L66" s="62">
+        <v>6</v>
+      </c>
+      <c r="M66" s="57">
         <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="N27" s="12"/>
-      <c r="O27" s="68" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="12.9">
-      <c r="A28" s="5">
-        <v>25</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="52" t="s">
-        <v>252</v>
-      </c>
-      <c r="H28" s="5">
-        <v>3</v>
-      </c>
-      <c r="I28" s="52" t="s">
-        <v>253</v>
-      </c>
-      <c r="J28" s="5">
-        <v>3</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="L28" s="5">
-        <v>18</v>
-      </c>
-      <c r="M28" s="11">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="N28" s="12"/>
-      <c r="O28" s="19" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="12.9">
-      <c r="G30" s="47" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="12.9">
-      <c r="A32" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="J32" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="L32" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="N32" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="O32" s="72"/>
-    </row>
-    <row r="33" spans="1:15" ht="12.9">
-      <c r="A33" s="73">
-        <v>1</v>
-      </c>
-      <c r="B33" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="C33" s="75" t="s">
-        <v>342</v>
-      </c>
-      <c r="D33" s="76">
-        <v>10</v>
-      </c>
-      <c r="E33" s="77"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="76">
-        <f t="shared" ref="M33:M58" si="2">L33+J33+H33+F33+D33</f>
-        <v>10</v>
-      </c>
-      <c r="N33" s="75" t="s">
-        <v>248</v>
-      </c>
-      <c r="O33" s="75" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="12.9">
-      <c r="A34" s="73">
-        <v>2</v>
-      </c>
-      <c r="B34" s="79" t="s">
-        <v>249</v>
-      </c>
-      <c r="C34" s="80" t="s">
-        <v>343</v>
-      </c>
-      <c r="D34" s="81">
-        <v>6</v>
-      </c>
-      <c r="E34" s="80" t="s">
-        <v>344</v>
-      </c>
-      <c r="F34" s="81">
-        <v>6</v>
-      </c>
-      <c r="G34" s="80" t="s">
-        <v>345</v>
-      </c>
-      <c r="H34" s="81">
-        <v>3</v>
-      </c>
-      <c r="I34" s="80" t="s">
-        <v>346</v>
-      </c>
-      <c r="J34" s="81">
-        <v>3</v>
-      </c>
-      <c r="K34" s="82"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="76">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="N34" s="83" t="s">
-        <v>254</v>
-      </c>
-      <c r="O34" s="84" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="12.9">
-      <c r="A35" s="73">
-        <v>3</v>
-      </c>
-      <c r="B35" s="79" t="s">
-        <v>255</v>
-      </c>
-      <c r="C35" s="80" t="s">
-        <v>347</v>
-      </c>
-      <c r="D35" s="81">
-        <v>6</v>
-      </c>
-      <c r="E35" s="80" t="s">
-        <v>348</v>
-      </c>
-      <c r="F35" s="81">
-        <v>6</v>
-      </c>
-      <c r="G35" s="80" t="s">
-        <v>349</v>
-      </c>
-      <c r="H35" s="81">
-        <v>3</v>
-      </c>
-      <c r="I35" s="80" t="s">
-        <v>347</v>
-      </c>
-      <c r="J35" s="81">
-        <v>3</v>
-      </c>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="76">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="N35" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="O35" s="84" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="12.9">
-      <c r="A36" s="73">
-        <v>4</v>
-      </c>
-      <c r="B36" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="C36" s="84" t="s">
-        <v>350</v>
-      </c>
-      <c r="D36" s="81">
-        <v>6</v>
-      </c>
-      <c r="E36" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="N66" s="66"/>
+      <c r="O66" s="77" t="s">
         <v>351</v>
       </c>
-      <c r="F36" s="81">
-        <v>6</v>
-      </c>
-      <c r="G36" s="84" t="s">
-        <v>352</v>
-      </c>
-      <c r="H36" s="81">
-        <v>3</v>
-      </c>
-      <c r="I36" s="84" t="s">
-        <v>353</v>
-      </c>
-      <c r="J36" s="81">
-        <v>3</v>
-      </c>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="76">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="N36" s="84" t="s">
-        <v>270</v>
-      </c>
-      <c r="O36" s="84" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="12.9">
-      <c r="A37" s="73">
-        <v>5</v>
-      </c>
-      <c r="B37" s="79" t="s">
-        <v>271</v>
-      </c>
-      <c r="C37" s="80" t="s">
-        <v>354</v>
-      </c>
-      <c r="D37" s="81">
-        <v>6</v>
-      </c>
-      <c r="E37" s="80" t="s">
-        <v>354</v>
-      </c>
-      <c r="F37" s="81">
-        <v>6</v>
-      </c>
-      <c r="G37" s="84" t="s">
-        <v>352</v>
-      </c>
-      <c r="H37" s="81">
-        <v>3</v>
-      </c>
-      <c r="I37" s="84" t="s">
-        <v>353</v>
-      </c>
-      <c r="J37" s="81">
-        <v>3</v>
-      </c>
-      <c r="K37" s="82"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="76">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="N37" s="84" t="s">
-        <v>276</v>
-      </c>
-      <c r="O37" s="84" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="12.9">
-      <c r="A38" s="73">
-        <v>6</v>
-      </c>
-      <c r="B38" s="79" t="s">
-        <v>277</v>
-      </c>
-      <c r="C38" s="84" t="s">
-        <v>355</v>
-      </c>
-      <c r="D38" s="81">
-        <v>10</v>
-      </c>
-      <c r="E38" s="85"/>
-      <c r="F38" s="81">
-        <v>5</v>
-      </c>
-      <c r="G38" s="86"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="76">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="N38" s="83" t="s">
-        <v>279</v>
-      </c>
-      <c r="O38" s="84" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="12.9">
-      <c r="A39" s="73">
-        <v>7</v>
-      </c>
-      <c r="B39" s="79" t="s">
-        <v>280</v>
-      </c>
-      <c r="C39" s="84" t="s">
-        <v>356</v>
-      </c>
-      <c r="D39" s="81">
-        <v>6</v>
-      </c>
-      <c r="E39" s="84" t="s">
-        <v>356</v>
-      </c>
-      <c r="F39" s="81">
-        <v>5</v>
-      </c>
-      <c r="G39" s="80" t="s">
-        <v>349</v>
-      </c>
-      <c r="H39" s="81">
-        <v>3</v>
-      </c>
-      <c r="I39" s="80" t="s">
-        <v>347</v>
-      </c>
-      <c r="J39" s="81">
-        <v>3</v>
-      </c>
-      <c r="K39" s="82"/>
-      <c r="L39" s="82"/>
-      <c r="M39" s="76">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="N39" s="84" t="s">
-        <v>357</v>
-      </c>
-      <c r="O39" s="84" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="12.9">
-      <c r="A40" s="73">
-        <v>8</v>
-      </c>
-      <c r="B40" s="79" t="s">
-        <v>284</v>
-      </c>
-      <c r="C40" s="84" t="s">
-        <v>358</v>
-      </c>
-      <c r="D40" s="81">
-        <v>5</v>
-      </c>
-      <c r="E40" s="84" t="s">
-        <v>359</v>
-      </c>
-      <c r="F40" s="81">
-        <v>5</v>
-      </c>
-      <c r="G40" s="86"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="82"/>
-      <c r="K40" s="82"/>
-      <c r="L40" s="82"/>
-      <c r="M40" s="76">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="N40" s="83" t="s">
-        <v>360</v>
-      </c>
-      <c r="O40" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="12.9">
-      <c r="A41" s="73">
-        <v>9</v>
-      </c>
-      <c r="B41" s="79" t="s">
-        <v>286</v>
-      </c>
-      <c r="C41" s="84" t="s">
-        <v>361</v>
-      </c>
-      <c r="D41" s="81">
-        <v>10</v>
-      </c>
-      <c r="E41" s="86"/>
-      <c r="F41" s="81">
-        <v>6</v>
-      </c>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="82"/>
-      <c r="K41" s="82"/>
-      <c r="L41" s="82"/>
-      <c r="M41" s="76">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="N41" s="84" t="s">
-        <v>288</v>
-      </c>
-      <c r="O41" s="84" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="12.9">
-      <c r="A42" s="73">
-        <v>10</v>
-      </c>
-      <c r="B42" s="79" t="s">
-        <v>289</v>
-      </c>
-      <c r="C42" s="88" t="s">
-        <v>362</v>
-      </c>
-      <c r="D42" s="81">
-        <v>6</v>
-      </c>
-      <c r="E42" s="88" t="s">
-        <v>363</v>
-      </c>
-      <c r="F42" s="81">
-        <v>6</v>
-      </c>
-      <c r="G42" s="88" t="s">
-        <v>364</v>
-      </c>
-      <c r="H42" s="81">
-        <v>3</v>
-      </c>
-      <c r="I42" s="89" t="s">
-        <v>263</v>
-      </c>
-      <c r="J42" s="81">
-        <v>3</v>
-      </c>
-      <c r="K42" s="82"/>
-      <c r="L42" s="82"/>
-      <c r="M42" s="76">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="N42" s="84" t="s">
-        <v>365</v>
-      </c>
-      <c r="O42" s="90" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="12.9">
-      <c r="A43" s="73">
-        <v>11</v>
-      </c>
-      <c r="B43" s="91" t="s">
-        <v>295</v>
-      </c>
-      <c r="C43" s="84" t="s">
-        <v>366</v>
-      </c>
-      <c r="D43" s="81">
-        <v>6</v>
-      </c>
-      <c r="E43" s="84" t="s">
-        <v>367</v>
-      </c>
-      <c r="F43" s="81">
-        <v>6</v>
-      </c>
-      <c r="G43" s="80" t="s">
-        <v>368</v>
-      </c>
-      <c r="H43" s="81">
-        <v>3</v>
-      </c>
-      <c r="I43" s="80" t="s">
-        <v>369</v>
-      </c>
-      <c r="J43" s="81">
-        <v>3</v>
-      </c>
-      <c r="K43" s="82"/>
-      <c r="L43" s="82"/>
-      <c r="M43" s="76">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="N43" s="84" t="s">
-        <v>290</v>
-      </c>
-      <c r="O43" s="84" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="12.9">
-      <c r="A44" s="73">
-        <v>12</v>
-      </c>
-      <c r="B44" s="79" t="s">
-        <v>302</v>
-      </c>
-      <c r="C44" s="84" t="s">
-        <v>370</v>
-      </c>
-      <c r="D44" s="81">
-        <v>6</v>
-      </c>
-      <c r="E44" s="84" t="s">
-        <v>371</v>
-      </c>
-      <c r="F44" s="81">
-        <v>6</v>
-      </c>
-      <c r="G44" s="84" t="s">
-        <v>372</v>
-      </c>
-      <c r="H44" s="81">
-        <v>3</v>
-      </c>
-      <c r="I44" s="84" t="s">
-        <v>373</v>
-      </c>
-      <c r="J44" s="81">
-        <v>3</v>
-      </c>
-      <c r="K44" s="82"/>
-      <c r="L44" s="82"/>
-      <c r="M44" s="76">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="N44" s="92" t="s">
-        <v>374</v>
-      </c>
-      <c r="O44" s="84" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="12.9">
-      <c r="A45" s="73">
-        <v>13</v>
-      </c>
-      <c r="B45" s="79" t="s">
-        <v>308</v>
-      </c>
-      <c r="C45" s="84" t="s">
-        <v>375</v>
-      </c>
-      <c r="D45" s="81">
-        <v>6</v>
-      </c>
-      <c r="E45" s="84" t="s">
-        <v>375</v>
-      </c>
-      <c r="F45" s="81">
-        <v>6</v>
-      </c>
-      <c r="G45" s="84" t="s">
-        <v>376</v>
-      </c>
-      <c r="H45" s="81">
-        <v>3</v>
-      </c>
-      <c r="I45" s="84" t="s">
-        <v>377</v>
-      </c>
-      <c r="J45" s="81">
-        <v>3</v>
-      </c>
-      <c r="K45" s="82"/>
-      <c r="L45" s="82"/>
-      <c r="M45" s="76">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="N45" s="83" t="s">
-        <v>378</v>
-      </c>
-      <c r="O45" s="84" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="12.9">
-      <c r="A46" s="73">
-        <v>14</v>
-      </c>
-      <c r="B46" s="79" t="s">
-        <v>312</v>
-      </c>
-      <c r="C46" s="84" t="s">
-        <v>379</v>
-      </c>
-      <c r="D46" s="81">
-        <v>10</v>
-      </c>
-      <c r="E46" s="87"/>
-      <c r="F46" s="81">
-        <v>6</v>
-      </c>
-      <c r="G46" s="88" t="s">
-        <v>315</v>
-      </c>
-      <c r="H46" s="81">
-        <v>3</v>
-      </c>
-      <c r="I46" s="88" t="s">
-        <v>316</v>
-      </c>
-      <c r="J46" s="81">
-        <v>3</v>
-      </c>
-      <c r="K46" s="82"/>
-      <c r="L46" s="82"/>
-      <c r="M46" s="76">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="N46" s="92" t="s">
-        <v>380</v>
-      </c>
-      <c r="O46" s="84" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="12.9">
-      <c r="A47" s="73">
-        <v>15</v>
-      </c>
-      <c r="B47" s="79" t="s">
-        <v>319</v>
-      </c>
-      <c r="C47" s="84" t="s">
-        <v>381</v>
-      </c>
-      <c r="D47" s="81">
-        <v>6</v>
-      </c>
-      <c r="E47" s="84" t="s">
-        <v>381</v>
-      </c>
-      <c r="F47" s="81">
-        <v>6</v>
-      </c>
-      <c r="G47" s="84" t="s">
-        <v>382</v>
-      </c>
-      <c r="H47" s="81">
-        <v>3</v>
-      </c>
-      <c r="I47" s="84" t="s">
-        <v>383</v>
-      </c>
-      <c r="J47" s="81">
-        <v>3</v>
-      </c>
-      <c r="K47" s="82"/>
-      <c r="L47" s="82"/>
-      <c r="M47" s="76">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="N47" s="83" t="s">
-        <v>324</v>
-      </c>
-      <c r="O47" s="84" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="12.9">
-      <c r="A48" s="73">
-        <v>16</v>
-      </c>
-      <c r="B48" s="79" t="s">
-        <v>325</v>
-      </c>
-      <c r="C48" s="80" t="s">
-        <v>384</v>
-      </c>
-      <c r="D48" s="81">
-        <v>6</v>
-      </c>
-      <c r="E48" s="80" t="s">
-        <v>384</v>
-      </c>
-      <c r="F48" s="81">
-        <v>6</v>
-      </c>
-      <c r="G48" s="80" t="s">
-        <v>385</v>
-      </c>
-      <c r="H48" s="81">
-        <v>3</v>
-      </c>
-      <c r="I48" s="80" t="s">
-        <v>386</v>
-      </c>
-      <c r="J48" s="81">
-        <v>3</v>
-      </c>
-      <c r="K48" s="82"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="76">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="N48" s="84" t="s">
-        <v>330</v>
-      </c>
-      <c r="O48" s="84" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="12.9">
-      <c r="A49" s="73">
-        <v>17</v>
-      </c>
-      <c r="B49" s="79" t="s">
-        <v>331</v>
-      </c>
-      <c r="C49" s="80" t="s">
-        <v>387</v>
-      </c>
-      <c r="D49" s="81">
-        <v>6</v>
-      </c>
-      <c r="E49" s="80" t="s">
-        <v>387</v>
-      </c>
-      <c r="F49" s="81">
-        <v>6</v>
-      </c>
-      <c r="G49" s="87"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="82"/>
-      <c r="K49" s="82"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="76">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="N49" s="84" t="s">
-        <v>333</v>
-      </c>
-      <c r="O49" s="84" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="12.9">
-      <c r="A50" s="73">
-        <v>18</v>
-      </c>
-      <c r="B50" s="79" t="s">
-        <v>334</v>
-      </c>
-      <c r="C50" s="84" t="s">
-        <v>388</v>
-      </c>
-      <c r="D50" s="81">
-        <v>6</v>
-      </c>
-      <c r="E50" s="84" t="s">
-        <v>389</v>
-      </c>
-      <c r="F50" s="81">
-        <v>6</v>
-      </c>
-      <c r="G50" s="88" t="s">
-        <v>390</v>
-      </c>
-      <c r="H50" s="81">
-        <v>3</v>
-      </c>
-      <c r="I50" s="89" t="s">
-        <v>391</v>
-      </c>
-      <c r="J50" s="81">
-        <v>3</v>
-      </c>
-      <c r="K50" s="82"/>
-      <c r="L50" s="82"/>
-      <c r="M50" s="76">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="N50" s="84" t="s">
-        <v>335</v>
-      </c>
-      <c r="O50" s="84" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="12.9">
-      <c r="A51" s="73">
-        <v>19</v>
-      </c>
-      <c r="B51" s="79" t="s">
-        <v>336</v>
-      </c>
-      <c r="C51" s="84" t="s">
-        <v>362</v>
-      </c>
-      <c r="D51" s="81">
-        <v>6</v>
-      </c>
-      <c r="E51" s="84" t="s">
-        <v>362</v>
-      </c>
-      <c r="F51" s="81">
-        <v>6</v>
-      </c>
-      <c r="G51" s="88" t="s">
-        <v>364</v>
-      </c>
-      <c r="H51" s="81">
-        <v>3</v>
-      </c>
-      <c r="I51" s="89" t="s">
-        <v>263</v>
-      </c>
-      <c r="J51" s="81">
-        <v>3</v>
-      </c>
-      <c r="K51" s="82"/>
-      <c r="L51" s="82"/>
-      <c r="M51" s="76">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="N51" s="85"/>
-      <c r="O51" s="84" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="12.9">
-      <c r="A52" s="73">
-        <v>20</v>
-      </c>
-      <c r="B52" s="79" t="s">
-        <v>337</v>
-      </c>
-      <c r="C52" s="84" t="s">
-        <v>362</v>
-      </c>
-      <c r="D52" s="81">
-        <v>6</v>
-      </c>
-      <c r="E52" s="84" t="s">
-        <v>362</v>
-      </c>
-      <c r="F52" s="81">
-        <v>6</v>
-      </c>
-      <c r="G52" s="88" t="s">
-        <v>364</v>
-      </c>
-      <c r="H52" s="81">
-        <v>3</v>
-      </c>
-      <c r="I52" s="89" t="s">
-        <v>263</v>
-      </c>
-      <c r="J52" s="81">
-        <v>3</v>
-      </c>
-      <c r="K52" s="82"/>
-      <c r="L52" s="82"/>
-      <c r="M52" s="76">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="N52" s="85"/>
-      <c r="O52" s="84" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="12.9">
-      <c r="A53" s="73">
-        <v>21</v>
-      </c>
-      <c r="B53" s="79" t="s">
-        <v>338</v>
-      </c>
-      <c r="C53" s="84" t="s">
-        <v>362</v>
-      </c>
-      <c r="D53" s="81">
-        <v>6</v>
-      </c>
-      <c r="E53" s="84" t="s">
-        <v>362</v>
-      </c>
-      <c r="F53" s="82"/>
-      <c r="G53" s="88" t="s">
-        <v>362</v>
-      </c>
-      <c r="H53" s="81">
-        <v>18</v>
-      </c>
-      <c r="I53" s="88" t="s">
-        <v>363</v>
-      </c>
-      <c r="J53" s="81">
-        <v>18</v>
-      </c>
-      <c r="K53" s="82"/>
-      <c r="L53" s="82"/>
-      <c r="M53" s="76">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="N53" s="85"/>
-      <c r="O53" s="84" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="12.9">
-      <c r="A54" s="73">
-        <v>22</v>
-      </c>
-      <c r="B54" s="93" t="s">
-        <v>339</v>
-      </c>
-      <c r="C54" s="84" t="s">
-        <v>362</v>
-      </c>
-      <c r="D54" s="81">
-        <v>6</v>
-      </c>
-      <c r="E54" s="84" t="s">
-        <v>362</v>
-      </c>
-      <c r="F54" s="82"/>
-      <c r="G54" s="84" t="s">
-        <v>392</v>
-      </c>
-      <c r="H54" s="81">
-        <v>3</v>
-      </c>
-      <c r="I54" s="84" t="s">
-        <v>393</v>
-      </c>
-      <c r="J54" s="81">
-        <v>3</v>
-      </c>
-      <c r="K54" s="88" t="s">
-        <v>340</v>
-      </c>
-      <c r="L54" s="81">
-        <v>18</v>
-      </c>
-      <c r="M54" s="76">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="N54" s="85"/>
-      <c r="O54" s="88" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="12.9">
-      <c r="A55" s="73">
-        <v>23</v>
-      </c>
-      <c r="B55" s="79" t="s">
-        <v>394</v>
-      </c>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="84" t="s">
-        <v>395</v>
-      </c>
-      <c r="H55" s="81">
-        <v>9</v>
-      </c>
-      <c r="I55" s="84" t="s">
-        <v>396</v>
-      </c>
-      <c r="J55" s="81">
-        <v>6</v>
-      </c>
-      <c r="K55" s="80" t="s">
-        <v>346</v>
-      </c>
-      <c r="L55" s="81">
-        <v>3</v>
-      </c>
-      <c r="M55" s="76">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="N55" s="85"/>
-      <c r="O55" s="84" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="12.9">
-      <c r="A56" s="73">
-        <v>24</v>
-      </c>
-      <c r="B56" s="79" t="s">
-        <v>397</v>
-      </c>
-      <c r="C56" s="84" t="s">
-        <v>398</v>
-      </c>
-      <c r="D56" s="81">
-        <v>7</v>
-      </c>
-      <c r="E56" s="84" t="s">
-        <v>399</v>
-      </c>
-      <c r="F56" s="81">
-        <v>7</v>
-      </c>
-      <c r="G56" s="88" t="s">
-        <v>400</v>
-      </c>
-      <c r="H56" s="81">
-        <v>3</v>
-      </c>
-      <c r="I56" s="88" t="s">
-        <v>401</v>
-      </c>
-      <c r="J56" s="81">
-        <v>3</v>
-      </c>
-      <c r="K56" s="85"/>
-      <c r="L56" s="85"/>
-      <c r="M56" s="76">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="N56" s="84" t="s">
-        <v>402</v>
-      </c>
-      <c r="O56" s="84" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="12.9">
-      <c r="A57" s="94">
-        <v>25</v>
-      </c>
-      <c r="B57" s="95" t="s">
-        <v>259</v>
-      </c>
-      <c r="C57" s="88" t="s">
-        <v>362</v>
-      </c>
-      <c r="D57" s="81">
-        <v>6</v>
-      </c>
-      <c r="E57" s="88" t="s">
-        <v>363</v>
-      </c>
-      <c r="F57" s="81">
-        <v>6</v>
-      </c>
-      <c r="G57" s="88" t="s">
-        <v>364</v>
-      </c>
-      <c r="H57" s="81">
-        <v>3</v>
-      </c>
-      <c r="I57" s="89" t="s">
-        <v>263</v>
-      </c>
-      <c r="J57" s="81">
-        <v>3</v>
-      </c>
-      <c r="K57" s="82"/>
-      <c r="L57" s="82"/>
-      <c r="M57" s="76">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="N57" s="84" t="s">
-        <v>264</v>
-      </c>
-      <c r="O57" s="96" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="12.9">
-      <c r="A58" s="97">
-        <v>26</v>
-      </c>
-      <c r="B58" s="95" t="s">
-        <v>403</v>
-      </c>
-      <c r="C58" s="88" t="s">
-        <v>404</v>
-      </c>
-      <c r="D58" s="81">
-        <v>2</v>
-      </c>
-      <c r="E58" s="88" t="s">
-        <v>405</v>
-      </c>
-      <c r="F58" s="81">
-        <v>2</v>
-      </c>
-      <c r="G58" s="84" t="s">
-        <v>395</v>
-      </c>
-      <c r="H58" s="81">
-        <v>3</v>
-      </c>
-      <c r="I58" s="84" t="s">
-        <v>406</v>
-      </c>
-      <c r="J58" s="81">
-        <v>6</v>
-      </c>
-      <c r="K58" s="80" t="s">
-        <v>407</v>
-      </c>
-      <c r="L58" s="81">
-        <v>6</v>
-      </c>
-      <c r="M58" s="76">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="N58" s="85"/>
-      <c r="O58" s="96" t="s">
-        <v>403</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SEM-1/Staff-Workload-2022-23.xlsx
+++ b/SEM-1/Staff-Workload-2022-23.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="470">
   <si>
     <t>S. No.</t>
   </si>
@@ -845,9 +845,6 @@
     <t>M.Soumya</t>
   </si>
   <si>
-    <t>NSS Department  Coordinator, Criterion 3 Member,UIPath Instute level  educator, DXC Coordinator</t>
-  </si>
-  <si>
     <t>K. Kondanna</t>
   </si>
   <si>
@@ -1130,9 +1127,6 @@
     <t>Mr.P. Rama Bayapa Reddy</t>
   </si>
   <si>
-    <t>Mr.B. Vijay Bhaskar Reddy</t>
-  </si>
-  <si>
     <t>Mrs. B. Subba Chaithanya</t>
   </si>
   <si>
@@ -1166,9 +1160,6 @@
     <t>Software Engineering Lab (II B.Tech I Sem CSE - Sec. B)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Data Base Management Systems Lab (II B.Tech I Sem CSE - B)</t>
-  </si>
-  <si>
     <t>Object Oriented Programming  Lab (II B.Tech I Sem CSE - B)</t>
   </si>
   <si>
@@ -1392,6 +1383,80 @@
   </si>
   <si>
     <t>SalesForce Institute level educator, Criterion 3 Member, II Year CSD Class Teacher, III CSE-A Couselling Activity (204G1A0522 to 542, 214G5A0504, 505 (23)) Dicipline Duty - (Monday), Presently Guiding 2 Project Batches.</t>
+  </si>
+  <si>
+    <t>Mr. B. Vijaya Bhaskar Reddy</t>
+  </si>
+  <si>
+    <t>Object Oriented Programming  (II B.Tech I Sem CSM Sec-A)</t>
+  </si>
+  <si>
+    <t>Object Oriented Programming  (II B.Tech I Sem CSM Sec-B)</t>
+  </si>
+  <si>
+    <t>Object Oriented Programming  Lab (II B.Tech I Sem CSM Sec-A)</t>
+  </si>
+  <si>
+    <t>Object Oriented Programming  Lab (II B.Tech I Sem CSM Sec-B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data Base Management Systems Lab (II B.Tech I Sem CSE - A)</t>
+  </si>
+  <si>
+    <t>Disciplinary Activity (Mon, Fri), Anti-ragging Committee (Tue), Couselling Activity (3 CSM - 204G1A3301 to 3321, LE-214G5A3301 to 3303 (24))Project Guide ( 1 Batch: A6)</t>
+  </si>
+  <si>
+    <t>Compiler Design (III B.Tech I Sem CSM)</t>
+  </si>
+  <si>
+    <t>Compiler Design (III B.Tech I Sem CSD)</t>
+  </si>
+  <si>
+    <t>BluePrism Institute level educator. Question Paper Audit Member, Criterion 3 CO-Ordinator, Exam related activities, Course Outcome Coordinator, Project Guide ( 2 Batches: A8, B14)</t>
+  </si>
+  <si>
+    <t>Applied Statistics (II B.Tech I Sem CSM Sec-A)</t>
+  </si>
+  <si>
+    <t>Applied Statistics (II B.Tech I Sem CSM Sec-B)</t>
+  </si>
+  <si>
+    <t>Applied Statistics Lab (II B.Tech I Sem CSM Sec-A)</t>
+  </si>
+  <si>
+    <t>Applied Statistics Lab (II B.Tech I Sem CSM Sec-B)</t>
+  </si>
+  <si>
+    <t>Mrs. M.Soumya</t>
+  </si>
+  <si>
+    <t>Database Management Systems (II B.Tech I Sem CSM Sec-A)</t>
+  </si>
+  <si>
+    <t>Database Management Systems (II B.Tech I Sem CSM Sec-B)</t>
+  </si>
+  <si>
+    <r>
+      <t>NSS Department  Coordinator, Criterion 3 Member,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>UIPath Instute level  educator,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> DXC Coordinator, Disciplinary Activity(Fri), Anti-Ragging Duty(Fri), Couselling Activity ( 3 CSD - 204G1A3243-3264,LE-214G5A3206 (23)), CSE Events Coordinator, Project Guide For 2 Bacthes ( B-6, B-15)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1501,12 +1566,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Cambria"/>
       <family val="1"/>
@@ -1529,6 +1588,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
@@ -1896,25 +1962,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1923,10 +1986,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1938,16 +2001,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -21324,13 +21390,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z66"/>
+  <dimension ref="A1:Z67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -21351,7 +21417,7 @@
       <c r="A1" s="47"/>
       <c r="B1" s="47"/>
       <c r="C1" s="97" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D1" s="47"/>
       <c r="E1" s="47"/>
@@ -21364,7 +21430,7 @@
       <c r="L1" s="47"/>
       <c r="M1" s="47"/>
       <c r="N1" s="48"/>
-      <c r="O1" s="87"/>
+      <c r="O1" s="86"/>
       <c r="P1" s="49"/>
       <c r="Q1" s="49"/>
       <c r="R1" s="49"/>
@@ -21392,7 +21458,7 @@
       <c r="L2" s="47"/>
       <c r="M2" s="47"/>
       <c r="N2" s="48"/>
-      <c r="O2" s="87"/>
+      <c r="O2" s="86"/>
       <c r="P2" s="49"/>
       <c r="Q2" s="49"/>
       <c r="R2" s="49"/>
@@ -21448,35 +21514,35 @@
       <c r="N3" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="88"/>
+      <c r="O3" s="87"/>
     </row>
     <row r="4" spans="1:26" ht="41" customHeight="1" thickBot="1">
-      <c r="A4" s="86">
+      <c r="A4" s="85">
         <v>1</v>
       </c>
       <c r="B4" s="84" t="s">
         <v>244</v>
       </c>
       <c r="C4" s="84" t="s">
-        <v>374</v>
-      </c>
-      <c r="D4" s="86">
+        <v>372</v>
+      </c>
+      <c r="D4" s="85">
         <v>4</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>374</v>
-      </c>
-      <c r="F4" s="86">
+        <v>372</v>
+      </c>
+      <c r="F4" s="85">
         <v>4</v>
       </c>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86">
-        <f t="shared" ref="M4:M36" si="0">L4+J4+H4+F4+D4</f>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85">
+        <f t="shared" ref="M4:M37" si="0">L4+J4+H4+F4+D4</f>
         <v>8</v>
       </c>
       <c r="N4" s="81" t="s">
@@ -21487,43 +21553,43 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="41" customHeight="1" thickBot="1">
-      <c r="A5" s="86">
+      <c r="A5" s="85">
         <v>2</v>
       </c>
       <c r="B5" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="C5" s="95" t="s">
-        <v>432</v>
-      </c>
-      <c r="D5" s="86">
+      <c r="C5" s="94" t="s">
+        <v>429</v>
+      </c>
+      <c r="D5" s="85">
         <v>5</v>
       </c>
-      <c r="E5" s="95" t="s">
-        <v>431</v>
-      </c>
-      <c r="F5" s="86">
+      <c r="E5" s="94" t="s">
+        <v>428</v>
+      </c>
+      <c r="F5" s="85">
         <v>5</v>
       </c>
-      <c r="G5" s="96" t="s">
-        <v>426</v>
-      </c>
-      <c r="H5" s="86">
+      <c r="G5" s="95" t="s">
+        <v>423</v>
+      </c>
+      <c r="H5" s="85">
         <v>3</v>
       </c>
-      <c r="I5" s="96" t="s">
-        <v>427</v>
-      </c>
-      <c r="J5" s="86">
+      <c r="I5" s="95" t="s">
+        <v>424</v>
+      </c>
+      <c r="J5" s="85">
         <v>3</v>
       </c>
-      <c r="K5" s="86" t="s">
-        <v>410</v>
-      </c>
-      <c r="L5" s="86">
+      <c r="K5" s="85" t="s">
+        <v>407</v>
+      </c>
+      <c r="L5" s="85">
         <v>0</v>
       </c>
-      <c r="M5" s="86">
+      <c r="M5" s="85">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -21535,43 +21601,43 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="41" customHeight="1" thickBot="1">
-      <c r="A6" s="86">
+      <c r="A6" s="85">
         <v>3</v>
       </c>
       <c r="B6" s="84" t="s">
-        <v>356</v>
-      </c>
-      <c r="C6" s="86" t="s">
-        <v>376</v>
-      </c>
-      <c r="D6" s="86">
+        <v>355</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>374</v>
+      </c>
+      <c r="D6" s="85">
         <v>0</v>
       </c>
-      <c r="E6" s="86" t="s">
-        <v>376</v>
-      </c>
-      <c r="F6" s="86">
+      <c r="E6" s="85" t="s">
+        <v>374</v>
+      </c>
+      <c r="F6" s="85">
         <v>0</v>
       </c>
       <c r="G6" s="81" t="s">
-        <v>376</v>
-      </c>
-      <c r="H6" s="86">
+        <v>374</v>
+      </c>
+      <c r="H6" s="85">
         <v>0</v>
       </c>
       <c r="I6" s="81" t="s">
-        <v>376</v>
-      </c>
-      <c r="J6" s="86">
+        <v>374</v>
+      </c>
+      <c r="J6" s="85">
         <v>0</v>
       </c>
-      <c r="K6" s="86" t="s">
-        <v>433</v>
-      </c>
-      <c r="L6" s="86">
+      <c r="K6" s="85" t="s">
+        <v>430</v>
+      </c>
+      <c r="L6" s="85">
         <v>0</v>
       </c>
-      <c r="M6" s="86">
+      <c r="M6" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -21579,47 +21645,47 @@
       <c r="O6" s="81"/>
     </row>
     <row r="7" spans="1:26" ht="41" customHeight="1" thickBot="1">
-      <c r="A7" s="86">
+      <c r="A7" s="85">
         <v>4</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>440</v>
-      </c>
-      <c r="C7" s="95" t="s">
+        <v>437</v>
+      </c>
+      <c r="C7" s="94" t="s">
+        <v>421</v>
+      </c>
+      <c r="D7" s="85">
+        <v>5</v>
+      </c>
+      <c r="E7" s="94" t="s">
+        <v>421</v>
+      </c>
+      <c r="F7" s="85">
+        <v>5</v>
+      </c>
+      <c r="G7" s="95" t="s">
+        <v>423</v>
+      </c>
+      <c r="H7" s="85">
+        <v>3</v>
+      </c>
+      <c r="I7" s="95" t="s">
         <v>424</v>
       </c>
-      <c r="D7" s="86">
-        <v>5</v>
-      </c>
-      <c r="E7" s="95" t="s">
-        <v>424</v>
-      </c>
-      <c r="F7" s="86">
-        <v>5</v>
-      </c>
-      <c r="G7" s="96" t="s">
-        <v>426</v>
-      </c>
-      <c r="H7" s="86">
+      <c r="J7" s="85">
         <v>3</v>
       </c>
-      <c r="I7" s="96" t="s">
-        <v>427</v>
-      </c>
-      <c r="J7" s="86">
-        <v>3</v>
-      </c>
-      <c r="K7" s="86" t="s">
-        <v>410</v>
-      </c>
-      <c r="L7" s="86">
+      <c r="K7" s="85" t="s">
+        <v>407</v>
+      </c>
+      <c r="L7" s="85">
         <v>0</v>
       </c>
-      <c r="M7" s="86">
+      <c r="M7" s="85">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="N7" s="86" t="s">
+      <c r="N7" s="85" t="s">
         <v>249</v>
       </c>
       <c r="O7" s="81" t="s">
@@ -21627,91 +21693,91 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="41" customHeight="1" thickBot="1">
-      <c r="A8" s="86">
+      <c r="A8" s="85">
         <v>5</v>
       </c>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="93" t="s">
         <v>250</v>
       </c>
       <c r="C8" s="84" t="s">
-        <v>376</v>
-      </c>
-      <c r="D8" s="86">
+        <v>374</v>
+      </c>
+      <c r="D8" s="85">
         <v>0</v>
       </c>
       <c r="E8" s="84" t="s">
-        <v>376</v>
-      </c>
-      <c r="F8" s="86">
+        <v>374</v>
+      </c>
+      <c r="F8" s="85">
         <v>0</v>
       </c>
       <c r="G8" s="84" t="s">
-        <v>376</v>
-      </c>
-      <c r="H8" s="86">
+        <v>374</v>
+      </c>
+      <c r="H8" s="85">
         <v>0</v>
       </c>
       <c r="I8" s="82" t="s">
-        <v>376</v>
-      </c>
-      <c r="J8" s="86">
+        <v>374</v>
+      </c>
+      <c r="J8" s="85">
         <v>0</v>
       </c>
-      <c r="K8" s="86" t="s">
-        <v>433</v>
-      </c>
-      <c r="L8" s="86">
+      <c r="K8" s="85" t="s">
+        <v>430</v>
+      </c>
+      <c r="L8" s="85">
         <v>0</v>
       </c>
-      <c r="M8" s="86">
+      <c r="M8" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N8" s="86" t="s">
+      <c r="N8" s="85" t="s">
         <v>252</v>
       </c>
-      <c r="O8" s="89" t="s">
+      <c r="O8" s="88" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="41" customHeight="1" thickBot="1">
-      <c r="A9" s="86">
+      <c r="A9" s="85">
         <v>6</v>
       </c>
       <c r="B9" s="84" t="s">
         <v>253</v>
       </c>
       <c r="C9" s="84" t="s">
+        <v>378</v>
+      </c>
+      <c r="D9" s="85">
+        <v>5</v>
+      </c>
+      <c r="E9" s="84" t="s">
+        <v>379</v>
+      </c>
+      <c r="F9" s="85">
+        <v>5</v>
+      </c>
+      <c r="G9" s="84" t="s">
+        <v>380</v>
+      </c>
+      <c r="H9" s="85">
+        <v>3</v>
+      </c>
+      <c r="I9" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="D9" s="86">
-        <v>5</v>
-      </c>
-      <c r="E9" s="84" t="s">
-        <v>382</v>
-      </c>
-      <c r="F9" s="86">
-        <v>5</v>
-      </c>
-      <c r="G9" s="84" t="s">
-        <v>383</v>
-      </c>
-      <c r="H9" s="86">
+      <c r="J9" s="85">
         <v>3</v>
       </c>
-      <c r="I9" s="84" t="s">
-        <v>384</v>
-      </c>
-      <c r="J9" s="86">
+      <c r="K9" s="84" t="s">
+        <v>436</v>
+      </c>
+      <c r="L9" s="85">
         <v>3</v>
       </c>
-      <c r="K9" s="84" t="s">
-        <v>439</v>
-      </c>
-      <c r="L9" s="86">
-        <v>3</v>
-      </c>
-      <c r="M9" s="86">
+      <c r="M9" s="85">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -21723,48 +21789,48 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="41" customHeight="1" thickBot="1">
-      <c r="A10" s="86">
+      <c r="A10" s="85">
         <v>7</v>
       </c>
       <c r="B10" s="84" t="s">
         <v>255</v>
       </c>
       <c r="C10" s="84" t="s">
-        <v>428</v>
-      </c>
-      <c r="D10" s="86">
+        <v>425</v>
+      </c>
+      <c r="D10" s="85">
         <v>5</v>
       </c>
       <c r="E10" s="84" t="s">
-        <v>429</v>
-      </c>
-      <c r="F10" s="86">
+        <v>426</v>
+      </c>
+      <c r="F10" s="85">
         <v>5</v>
       </c>
       <c r="G10" s="84" t="s">
-        <v>410</v>
-      </c>
-      <c r="H10" s="86">
+        <v>407</v>
+      </c>
+      <c r="H10" s="85">
         <v>0</v>
       </c>
       <c r="I10" s="82" t="s">
-        <v>410</v>
-      </c>
-      <c r="J10" s="86">
+        <v>407</v>
+      </c>
+      <c r="J10" s="85">
         <v>0</v>
       </c>
-      <c r="K10" s="86" t="s">
-        <v>410</v>
-      </c>
-      <c r="L10" s="86">
+      <c r="K10" s="85" t="s">
+        <v>407</v>
+      </c>
+      <c r="L10" s="85">
         <v>0</v>
       </c>
-      <c r="M10" s="86">
+      <c r="M10" s="85">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N10" s="81" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="O10" s="81" t="s">
         <v>255</v>
@@ -21774,164 +21840,172 @@
       <c r="A11" s="83">
         <v>8</v>
       </c>
-      <c r="B11" s="86" t="s">
-        <v>399</v>
+      <c r="B11" s="85" t="s">
+        <v>396</v>
       </c>
       <c r="C11" s="84" t="s">
-        <v>396</v>
-      </c>
-      <c r="D11" s="86">
+        <v>393</v>
+      </c>
+      <c r="D11" s="85">
         <v>4</v>
       </c>
       <c r="E11" s="84" t="s">
-        <v>397</v>
-      </c>
-      <c r="F11" s="86">
+        <v>394</v>
+      </c>
+      <c r="F11" s="85">
         <v>4</v>
       </c>
       <c r="G11" s="84"/>
-      <c r="H11" s="86"/>
+      <c r="H11" s="85"/>
       <c r="I11" s="82"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86">
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="N11" s="81" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="O11" s="81" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="41" customHeight="1" thickBot="1">
-      <c r="A12" s="86">
+      <c r="A12" s="85">
         <v>9</v>
       </c>
       <c r="B12" s="84" t="s">
         <v>262</v>
       </c>
       <c r="C12" s="84" t="s">
-        <v>434</v>
-      </c>
-      <c r="D12" s="86">
+        <v>431</v>
+      </c>
+      <c r="D12" s="85">
         <v>5</v>
       </c>
       <c r="E12" s="84" t="s">
-        <v>434</v>
-      </c>
-      <c r="F12" s="86">
+        <v>431</v>
+      </c>
+      <c r="F12" s="85">
         <v>5</v>
       </c>
-      <c r="G12" s="86" t="s">
-        <v>376</v>
-      </c>
-      <c r="H12" s="86">
+      <c r="G12" s="85" t="s">
+        <v>374</v>
+      </c>
+      <c r="H12" s="85">
         <v>0</v>
       </c>
-      <c r="I12" s="86" t="s">
-        <v>376</v>
-      </c>
-      <c r="J12" s="86">
+      <c r="I12" s="85" t="s">
+        <v>374</v>
+      </c>
+      <c r="J12" s="85">
         <v>0</v>
       </c>
-      <c r="K12" s="86" t="s">
-        <v>433</v>
-      </c>
-      <c r="L12" s="86">
+      <c r="K12" s="85" t="s">
+        <v>430</v>
+      </c>
+      <c r="L12" s="85">
         <v>0</v>
       </c>
-      <c r="M12" s="86">
+      <c r="M12" s="85">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="N12" s="86" t="s">
+      <c r="N12" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="O12" s="81" t="s">
+      <c r="O12" s="96" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="41" customHeight="1" thickBot="1">
-      <c r="A13" s="86">
+    <row r="13" spans="1:26" ht="60.75" thickBot="1">
+      <c r="A13" s="85">
         <v>10</v>
       </c>
       <c r="B13" s="84" t="s">
         <v>257</v>
       </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="86"/>
+      <c r="C13" s="83" t="s">
+        <v>459</v>
+      </c>
+      <c r="D13" s="85">
+        <v>5</v>
+      </c>
+      <c r="E13" s="83" t="s">
+        <v>460</v>
+      </c>
+      <c r="F13" s="85">
+        <v>5</v>
+      </c>
       <c r="G13" s="84" t="s">
-        <v>437</v>
-      </c>
-      <c r="H13" s="86">
+        <v>434</v>
+      </c>
+      <c r="H13" s="85">
         <v>3</v>
       </c>
       <c r="I13" s="84" t="s">
-        <v>438</v>
-      </c>
-      <c r="J13" s="86">
+        <v>435</v>
+      </c>
+      <c r="J13" s="85">
         <v>3</v>
       </c>
-      <c r="K13" s="86" t="s">
-        <v>433</v>
-      </c>
-      <c r="L13" s="86">
+      <c r="K13" s="85" t="s">
+        <v>430</v>
+      </c>
+      <c r="L13" s="85">
         <v>0</v>
       </c>
-      <c r="M13" s="86">
+      <c r="M13" s="85">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N13" s="81" t="s">
-        <v>258</v>
-      </c>
-      <c r="O13" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="85" t="s">
+        <v>461</v>
+      </c>
+      <c r="O13" s="85" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="41" customHeight="1" thickBot="1">
-      <c r="A14" s="86">
+      <c r="A14" s="85">
         <v>11</v>
       </c>
       <c r="B14" s="84" t="s">
         <v>259</v>
       </c>
       <c r="C14" s="84" t="s">
-        <v>402</v>
-      </c>
-      <c r="D14" s="86">
+        <v>399</v>
+      </c>
+      <c r="D14" s="85">
         <v>4</v>
       </c>
       <c r="E14" s="84" t="s">
-        <v>403</v>
-      </c>
-      <c r="F14" s="86">
+        <v>400</v>
+      </c>
+      <c r="F14" s="85">
         <v>5</v>
       </c>
       <c r="G14" s="84" t="s">
-        <v>400</v>
-      </c>
-      <c r="H14" s="86">
+        <v>397</v>
+      </c>
+      <c r="H14" s="85">
         <v>3</v>
       </c>
       <c r="I14" s="84" t="s">
-        <v>401</v>
-      </c>
-      <c r="J14" s="86">
+        <v>398</v>
+      </c>
+      <c r="J14" s="85">
         <v>3</v>
       </c>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86">
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="N14" s="81" t="s">
+      <c r="N14" s="85" t="s">
         <v>260</v>
       </c>
       <c r="O14" s="81" t="s">
@@ -21939,89 +22013,89 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="41" customHeight="1" thickBot="1">
-      <c r="A15" s="86">
+      <c r="A15" s="85">
         <v>12</v>
       </c>
       <c r="B15" s="84" t="s">
         <v>264</v>
       </c>
       <c r="C15" s="84" t="s">
+        <v>368</v>
+      </c>
+      <c r="D15" s="85">
+        <v>5</v>
+      </c>
+      <c r="E15" s="84" t="s">
+        <v>369</v>
+      </c>
+      <c r="F15" s="85">
+        <v>4</v>
+      </c>
+      <c r="G15" s="84" t="s">
         <v>370</v>
       </c>
-      <c r="D15" s="86">
-        <v>5</v>
-      </c>
-      <c r="E15" s="84" t="s">
+      <c r="H15" s="85">
+        <v>3</v>
+      </c>
+      <c r="I15" s="84" t="s">
         <v>371</v>
       </c>
-      <c r="F15" s="86">
-        <v>4</v>
-      </c>
-      <c r="G15" s="84" t="s">
-        <v>372</v>
-      </c>
-      <c r="H15" s="86">
+      <c r="J15" s="85">
         <v>3</v>
       </c>
-      <c r="I15" s="84" t="s">
-        <v>373</v>
-      </c>
-      <c r="J15" s="86">
-        <v>3</v>
-      </c>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86">
+      <c r="K15" s="85"/>
+      <c r="L15" s="85">
         <v>0</v>
       </c>
-      <c r="M15" s="86">
+      <c r="M15" s="85">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N15" s="81" t="s">
         <v>265</v>
       </c>
-      <c r="O15" s="90" t="s">
+      <c r="O15" s="89" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="41" customHeight="1" thickBot="1">
-      <c r="A16" s="86">
+      <c r="A16" s="85">
         <v>13</v>
       </c>
       <c r="B16" s="84" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C16" s="84" t="s">
-        <v>435</v>
-      </c>
-      <c r="D16" s="86">
+        <v>432</v>
+      </c>
+      <c r="D16" s="85">
         <v>5</v>
       </c>
       <c r="E16" s="84" t="s">
-        <v>436</v>
-      </c>
-      <c r="F16" s="86">
+        <v>433</v>
+      </c>
+      <c r="F16" s="85">
         <v>5</v>
       </c>
       <c r="G16" s="84" t="s">
-        <v>446</v>
-      </c>
-      <c r="H16" s="86">
+        <v>443</v>
+      </c>
+      <c r="H16" s="85">
         <v>3</v>
       </c>
       <c r="I16" s="84" t="s">
-        <v>447</v>
-      </c>
-      <c r="J16" s="86">
+        <v>444</v>
+      </c>
+      <c r="J16" s="85">
         <v>3</v>
       </c>
-      <c r="K16" s="86" t="s">
-        <v>410</v>
-      </c>
-      <c r="L16" s="86">
+      <c r="K16" s="85" t="s">
+        <v>407</v>
+      </c>
+      <c r="L16" s="85">
         <v>0</v>
       </c>
-      <c r="M16" s="86">
+      <c r="M16" s="85">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -22034,43 +22108,43 @@
       <c r="P16" s="79"/>
     </row>
     <row r="17" spans="1:15" ht="45.7" thickBot="1">
-      <c r="A17" s="86">
+      <c r="A17" s="85">
         <v>14</v>
       </c>
       <c r="B17" s="84" t="s">
         <v>269</v>
       </c>
       <c r="C17" s="84" t="s">
-        <v>416</v>
-      </c>
-      <c r="D17" s="86">
+        <v>413</v>
+      </c>
+      <c r="D17" s="85">
         <v>5</v>
       </c>
       <c r="E17" s="84" t="s">
-        <v>417</v>
-      </c>
-      <c r="F17" s="86">
+        <v>414</v>
+      </c>
+      <c r="F17" s="85">
         <v>5</v>
       </c>
       <c r="G17" s="84" t="s">
-        <v>418</v>
-      </c>
-      <c r="H17" s="86">
+        <v>415</v>
+      </c>
+      <c r="H17" s="85">
         <v>3</v>
       </c>
       <c r="I17" s="84" t="s">
-        <v>418</v>
-      </c>
-      <c r="J17" s="86">
+        <v>415</v>
+      </c>
+      <c r="J17" s="85">
         <v>3</v>
       </c>
-      <c r="K17" s="86" t="s">
-        <v>410</v>
-      </c>
-      <c r="L17" s="86">
+      <c r="K17" s="85" t="s">
+        <v>407</v>
+      </c>
+      <c r="L17" s="85">
         <v>0</v>
       </c>
-      <c r="M17" s="86">
+      <c r="M17" s="85">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -22081,873 +22155,995 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="41" customHeight="1" thickBot="1">
-      <c r="A18" s="86">
+    <row r="18" spans="1:15" ht="90.8" thickBot="1">
+      <c r="A18" s="85">
         <v>15</v>
       </c>
       <c r="B18" s="84" t="s">
+        <v>466</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>462</v>
+      </c>
+      <c r="D18" s="85">
+        <v>4</v>
+      </c>
+      <c r="E18" s="84" t="s">
+        <v>463</v>
+      </c>
+      <c r="F18" s="85">
+        <v>4</v>
+      </c>
+      <c r="G18" s="84" t="s">
+        <v>464</v>
+      </c>
+      <c r="H18" s="85">
+        <v>3</v>
+      </c>
+      <c r="I18" s="84" t="s">
+        <v>465</v>
+      </c>
+      <c r="J18" s="85">
+        <v>3</v>
+      </c>
+      <c r="K18" s="84" t="s">
+        <v>456</v>
+      </c>
+      <c r="L18" s="85">
+        <v>3</v>
+      </c>
+      <c r="M18" s="85">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="N18" s="81" t="s">
+        <v>469</v>
+      </c>
+      <c r="O18" s="81" t="s">
         <v>271</v>
       </c>
-      <c r="C18" s="84"/>
-      <c r="D18" s="86">
-        <v>6</v>
-      </c>
-      <c r="E18" s="84"/>
-      <c r="F18" s="86">
-        <v>6</v>
-      </c>
-      <c r="G18" s="84"/>
-      <c r="H18" s="86">
+    </row>
+    <row r="19" spans="1:15" ht="60.75" thickBot="1">
+      <c r="A19" s="85">
+        <v>16</v>
+      </c>
+      <c r="B19" s="84" t="s">
+        <v>272</v>
+      </c>
+      <c r="C19" s="84" t="s">
+        <v>446</v>
+      </c>
+      <c r="D19" s="85">
+        <v>4</v>
+      </c>
+      <c r="E19" s="84" t="s">
+        <v>447</v>
+      </c>
+      <c r="F19" s="85">
+        <v>4</v>
+      </c>
+      <c r="G19" s="84" t="s">
+        <v>448</v>
+      </c>
+      <c r="H19" s="85">
         <v>3</v>
       </c>
-      <c r="I18" s="84"/>
-      <c r="J18" s="86">
+      <c r="I19" s="84" t="s">
+        <v>449</v>
+      </c>
+      <c r="J19" s="85">
         <v>3</v>
       </c>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86">
+      <c r="K19" s="85" t="s">
+        <v>450</v>
+      </c>
+      <c r="L19" s="85">
+        <v>3</v>
+      </c>
+      <c r="M19" s="85">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="N19" s="82" t="s">
+        <v>451</v>
+      </c>
+      <c r="O19" s="81" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="120.9" thickBot="1">
+      <c r="A20" s="85">
+        <v>17</v>
+      </c>
+      <c r="B20" s="84" t="s">
+        <v>279</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>416</v>
+      </c>
+      <c r="D20" s="85">
+        <v>5</v>
+      </c>
+      <c r="E20" s="84" t="s">
+        <v>417</v>
+      </c>
+      <c r="F20" s="85">
+        <v>5</v>
+      </c>
+      <c r="G20" s="84" t="s">
+        <v>418</v>
+      </c>
+      <c r="H20" s="85">
+        <v>3</v>
+      </c>
+      <c r="I20" s="85" t="s">
+        <v>419</v>
+      </c>
+      <c r="J20" s="85">
+        <v>3</v>
+      </c>
+      <c r="K20" s="85" t="s">
+        <v>407</v>
+      </c>
+      <c r="L20" s="85">
+        <v>0</v>
+      </c>
+      <c r="M20" s="85">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="N20" s="81" t="s">
+        <v>422</v>
+      </c>
+      <c r="O20" s="85" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="41" customHeight="1" thickBot="1">
+      <c r="A21" s="85">
+        <v>18</v>
+      </c>
+      <c r="B21" s="84" t="s">
+        <v>275</v>
+      </c>
+      <c r="C21" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="D21" s="85">
+        <v>0</v>
+      </c>
+      <c r="E21" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="F21" s="85">
+        <v>0</v>
+      </c>
+      <c r="G21" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="H21" s="85">
+        <v>0</v>
+      </c>
+      <c r="I21" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="J21" s="85">
+        <v>0</v>
+      </c>
+      <c r="K21" s="85" t="s">
+        <v>430</v>
+      </c>
+      <c r="L21" s="85">
+        <v>0</v>
+      </c>
+      <c r="M21" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="O21" s="81" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="41" customHeight="1" thickBot="1">
+      <c r="A22" s="85">
+        <v>19</v>
+      </c>
+      <c r="B22" s="84" t="s">
+        <v>356</v>
+      </c>
+      <c r="C22" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="D22" s="85">
+        <v>0</v>
+      </c>
+      <c r="E22" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="F22" s="85">
+        <v>0</v>
+      </c>
+      <c r="G22" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="H22" s="85">
+        <v>0</v>
+      </c>
+      <c r="I22" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="J22" s="85">
+        <v>0</v>
+      </c>
+      <c r="K22" s="85" t="s">
+        <v>430</v>
+      </c>
+      <c r="L22" s="85">
+        <v>0</v>
+      </c>
+      <c r="M22" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="85" t="s">
+        <v>374</v>
+      </c>
+      <c r="O22" s="84" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="41" customHeight="1" thickBot="1">
+      <c r="A23" s="85">
+        <v>20</v>
+      </c>
+      <c r="B23" s="84" t="s">
+        <v>357</v>
+      </c>
+      <c r="C23" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="D23" s="85">
+        <v>0</v>
+      </c>
+      <c r="E23" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="F23" s="85">
+        <v>0</v>
+      </c>
+      <c r="G23" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="H23" s="85">
+        <v>0</v>
+      </c>
+      <c r="I23" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="J23" s="85">
+        <v>0</v>
+      </c>
+      <c r="K23" s="85" t="s">
+        <v>430</v>
+      </c>
+      <c r="L23" s="85">
+        <v>0</v>
+      </c>
+      <c r="M23" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="85" t="s">
+        <v>374</v>
+      </c>
+      <c r="O23" s="84" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="41" customHeight="1" thickBot="1">
+      <c r="A24" s="85">
+        <v>21</v>
+      </c>
+      <c r="B24" s="84" t="s">
+        <v>358</v>
+      </c>
+      <c r="C24" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="D24" s="85">
+        <v>0</v>
+      </c>
+      <c r="E24" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="F24" s="85">
+        <v>0</v>
+      </c>
+      <c r="G24" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="H24" s="85">
+        <v>0</v>
+      </c>
+      <c r="I24" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="J24" s="85">
+        <v>0</v>
+      </c>
+      <c r="K24" s="85" t="s">
+        <v>430</v>
+      </c>
+      <c r="L24" s="85">
+        <v>0</v>
+      </c>
+      <c r="M24" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="85" t="s">
+        <v>374</v>
+      </c>
+      <c r="O24" s="84" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="41" customHeight="1" thickBot="1">
+      <c r="A25" s="85">
+        <v>22</v>
+      </c>
+      <c r="B25" s="84" t="s">
+        <v>359</v>
+      </c>
+      <c r="C25" s="84" t="s">
+        <v>438</v>
+      </c>
+      <c r="D25" s="85">
+        <v>4</v>
+      </c>
+      <c r="E25" s="84" t="s">
+        <v>439</v>
+      </c>
+      <c r="F25" s="85">
+        <v>4</v>
+      </c>
+      <c r="G25" s="83" t="s">
+        <v>440</v>
+      </c>
+      <c r="H25" s="85">
+        <v>3</v>
+      </c>
+      <c r="I25" s="83" t="s">
+        <v>440</v>
+      </c>
+      <c r="J25" s="85">
+        <v>3</v>
+      </c>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+    </row>
+    <row r="26" spans="1:15" ht="41" customHeight="1" thickBot="1">
+      <c r="A26" s="85">
+        <v>23</v>
+      </c>
+      <c r="B26" s="84" t="s">
+        <v>360</v>
+      </c>
+      <c r="C26" s="84" t="s">
+        <v>467</v>
+      </c>
+      <c r="D26" s="85">
+        <v>4</v>
+      </c>
+      <c r="E26" s="84" t="s">
+        <v>468</v>
+      </c>
+      <c r="F26" s="85">
+        <v>4</v>
+      </c>
+      <c r="G26" s="84"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="84" t="s">
+        <v>436</v>
+      </c>
+      <c r="L26" s="85">
+        <v>3</v>
+      </c>
+      <c r="M26" s="85">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N26" s="83" t="s">
+        <v>278</v>
+      </c>
+      <c r="O26" s="81" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="41" customHeight="1" thickBot="1">
+      <c r="A27" s="85">
+        <v>24</v>
+      </c>
+      <c r="B27" s="84" t="s">
+        <v>361</v>
+      </c>
+      <c r="C27" s="84" t="s">
+        <v>401</v>
+      </c>
+      <c r="D27" s="85">
+        <v>5</v>
+      </c>
+      <c r="E27" s="84" t="s">
+        <v>402</v>
+      </c>
+      <c r="F27" s="85">
+        <v>5</v>
+      </c>
+      <c r="G27" s="83" t="s">
+        <v>403</v>
+      </c>
+      <c r="H27" s="85">
+        <v>3</v>
+      </c>
+      <c r="I27" s="83" t="s">
+        <v>404</v>
+      </c>
+      <c r="J27" s="85">
+        <v>3</v>
+      </c>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="N27" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="O27" s="81" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="41" customHeight="1" thickBot="1">
+      <c r="A28" s="85">
+        <v>25</v>
+      </c>
+      <c r="B28" s="84" t="s">
+        <v>362</v>
+      </c>
+      <c r="C28" s="84"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="83" t="s">
+        <v>375</v>
+      </c>
+      <c r="H28" s="85">
+        <v>3</v>
+      </c>
+      <c r="I28" s="83" t="s">
+        <v>376</v>
+      </c>
+      <c r="J28" s="85">
+        <v>3</v>
+      </c>
+      <c r="K28" s="84" t="s">
+        <v>448</v>
+      </c>
+      <c r="L28" s="85">
+        <v>3</v>
+      </c>
+      <c r="M28" s="85">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N28" s="81"/>
+      <c r="O28" s="81" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="41" customHeight="1" thickBot="1">
+      <c r="A29" s="85">
+        <v>26</v>
+      </c>
+      <c r="B29" s="84" t="s">
+        <v>363</v>
+      </c>
+      <c r="C29" s="84" t="s">
+        <v>441</v>
+      </c>
+      <c r="D29" s="85">
+        <v>4</v>
+      </c>
+      <c r="E29" s="84" t="s">
+        <v>442</v>
+      </c>
+      <c r="F29" s="85">
+        <v>4</v>
+      </c>
+      <c r="G29" s="84" t="s">
+        <v>443</v>
+      </c>
+      <c r="H29" s="85">
+        <v>3</v>
+      </c>
+      <c r="I29" s="84" t="s">
+        <v>444</v>
+      </c>
+      <c r="J29" s="85">
+        <v>3</v>
+      </c>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
+    </row>
+    <row r="30" spans="1:15" ht="41" customHeight="1" thickBot="1">
+      <c r="A30" s="85">
+        <v>27</v>
+      </c>
+      <c r="B30" s="84" t="s">
+        <v>364</v>
+      </c>
+      <c r="C30" s="84" t="s">
+        <v>390</v>
+      </c>
+      <c r="D30" s="85">
+        <v>4</v>
+      </c>
+      <c r="E30" s="84" t="s">
+        <v>391</v>
+      </c>
+      <c r="F30" s="85">
+        <v>5</v>
+      </c>
+      <c r="G30" s="84" t="s">
+        <v>397</v>
+      </c>
+      <c r="H30" s="85">
+        <v>3</v>
+      </c>
+      <c r="I30" s="84" t="s">
+        <v>398</v>
+      </c>
+      <c r="J30" s="85">
+        <v>3</v>
+      </c>
+      <c r="K30" s="85" t="s">
+        <v>377</v>
+      </c>
+      <c r="L30" s="85">
+        <v>3</v>
+      </c>
+      <c r="M30" s="85">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="N18" s="81" t="s">
-        <v>272</v>
-      </c>
-      <c r="O18" s="81" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="60.75" thickBot="1">
-      <c r="A19" s="86">
+      <c r="N30" s="81"/>
+      <c r="O30" s="81"/>
+    </row>
+    <row r="31" spans="1:15" ht="41" customHeight="1" thickBot="1">
+      <c r="A31" s="85">
+        <v>28</v>
+      </c>
+      <c r="B31" s="84" t="s">
+        <v>365</v>
+      </c>
+      <c r="C31" s="84" t="s">
+        <v>386</v>
+      </c>
+      <c r="D31" s="85">
+        <v>5</v>
+      </c>
+      <c r="E31" s="84" t="s">
+        <v>387</v>
+      </c>
+      <c r="F31" s="85">
+        <v>5</v>
+      </c>
+      <c r="G31" s="84" t="s">
+        <v>388</v>
+      </c>
+      <c r="H31" s="85">
+        <v>3</v>
+      </c>
+      <c r="I31" s="84" t="s">
+        <v>389</v>
+      </c>
+      <c r="J31" s="85">
+        <v>3</v>
+      </c>
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="85">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="84" t="s">
-        <v>273</v>
-      </c>
-      <c r="C19" s="84" t="s">
-        <v>449</v>
-      </c>
-      <c r="D19" s="86">
+      <c r="N31" s="81" t="s">
+        <v>392</v>
+      </c>
+      <c r="O31" s="81"/>
+    </row>
+    <row r="32" spans="1:15" ht="60.75" thickBot="1">
+      <c r="A32" s="85">
+        <v>29</v>
+      </c>
+      <c r="B32" s="84" t="s">
+        <v>452</v>
+      </c>
+      <c r="C32" s="84" t="s">
+        <v>453</v>
+      </c>
+      <c r="D32" s="85">
         <v>4</v>
       </c>
-      <c r="E19" s="84" t="s">
-        <v>450</v>
-      </c>
-      <c r="F19" s="86">
+      <c r="E32" s="84" t="s">
+        <v>454</v>
+      </c>
+      <c r="F32" s="85">
         <v>4</v>
       </c>
-      <c r="G19" s="84" t="s">
-        <v>451</v>
-      </c>
-      <c r="H19" s="86">
+      <c r="G32" s="84" t="s">
+        <v>455</v>
+      </c>
+      <c r="H32" s="85">
         <v>3</v>
       </c>
-      <c r="I19" s="84" t="s">
-        <v>452</v>
-      </c>
-      <c r="J19" s="86">
+      <c r="I32" s="84" t="s">
+        <v>456</v>
+      </c>
+      <c r="J32" s="85">
         <v>3</v>
       </c>
-      <c r="K19" s="86" t="s">
-        <v>453</v>
-      </c>
-      <c r="L19" s="86">
+      <c r="K32" s="85" t="s">
+        <v>457</v>
+      </c>
+      <c r="L32" s="85">
         <v>3</v>
       </c>
-      <c r="M19" s="86">
+      <c r="M32" s="85">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="N19" s="82" t="s">
-        <v>454</v>
-      </c>
-      <c r="O19" s="81" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="120.9" thickBot="1">
-      <c r="A20" s="86">
-        <v>17</v>
-      </c>
-      <c r="B20" s="84" t="s">
-        <v>280</v>
-      </c>
-      <c r="C20" s="84" t="s">
-        <v>419</v>
-      </c>
-      <c r="D20" s="86">
-        <v>5</v>
-      </c>
-      <c r="E20" s="84" t="s">
+      <c r="N32" s="81" t="s">
+        <v>458</v>
+      </c>
+      <c r="O32" s="84" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="45.7" thickBot="1">
+      <c r="A33" s="85">
+        <v>30</v>
+      </c>
+      <c r="B33" s="84" t="s">
+        <v>373</v>
+      </c>
+      <c r="C33" s="84" t="s">
+        <v>406</v>
+      </c>
+      <c r="D33" s="85">
+        <v>0</v>
+      </c>
+      <c r="E33" s="84" t="s">
+        <v>407</v>
+      </c>
+      <c r="F33" s="85">
+        <v>0</v>
+      </c>
+      <c r="G33" s="83" t="s">
+        <v>411</v>
+      </c>
+      <c r="H33" s="85">
+        <v>12</v>
+      </c>
+      <c r="I33" s="93" t="s">
+        <v>409</v>
+      </c>
+      <c r="J33" s="85">
+        <v>6</v>
+      </c>
+      <c r="K33" s="85" t="s">
+        <v>410</v>
+      </c>
+      <c r="L33" s="85">
+        <v>6</v>
+      </c>
+      <c r="M33" s="85">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N33" s="84" t="s">
+        <v>412</v>
+      </c>
+      <c r="O33" s="85" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="41" customHeight="1" thickBot="1">
+      <c r="A34" s="85">
+        <v>31</v>
+      </c>
+      <c r="B34" s="84" t="s">
+        <v>405</v>
+      </c>
+      <c r="C34" s="84" t="s">
+        <v>406</v>
+      </c>
+      <c r="D34" s="85">
+        <v>0</v>
+      </c>
+      <c r="E34" s="84" t="s">
+        <v>407</v>
+      </c>
+      <c r="F34" s="85">
+        <v>0</v>
+      </c>
+      <c r="G34" s="83" t="s">
+        <v>375</v>
+      </c>
+      <c r="H34" s="85">
+        <v>3</v>
+      </c>
+      <c r="I34" s="83" t="s">
+        <v>408</v>
+      </c>
+      <c r="J34" s="85">
+        <v>6</v>
+      </c>
+      <c r="K34" s="85" t="s">
         <v>420</v>
       </c>
-      <c r="F20" s="86">
-        <v>5</v>
-      </c>
-      <c r="G20" s="84" t="s">
-        <v>421</v>
-      </c>
-      <c r="H20" s="86">
-        <v>3</v>
-      </c>
-      <c r="I20" s="86" t="s">
-        <v>422</v>
-      </c>
-      <c r="J20" s="86">
-        <v>3</v>
-      </c>
-      <c r="K20" s="86" t="s">
-        <v>410</v>
-      </c>
-      <c r="L20" s="86">
-        <v>0</v>
-      </c>
-      <c r="M20" s="86">
+      <c r="L34" s="85">
+        <v>6</v>
+      </c>
+      <c r="M34" s="85">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N34" s="81"/>
+      <c r="O34" s="81" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="41" customHeight="1" thickBot="1">
+      <c r="A35" s="85">
+        <v>32</v>
+      </c>
+      <c r="B35" s="84" t="s">
+        <v>366</v>
+      </c>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="85">
+        <v>18</v>
+      </c>
+      <c r="I35" s="84"/>
+      <c r="J35" s="85">
+        <v>18</v>
+      </c>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="41" customHeight="1" thickBot="1">
+      <c r="A36" s="90">
+        <v>33</v>
+      </c>
+      <c r="B36" s="84" t="s">
+        <v>382</v>
+      </c>
+      <c r="C36" s="83" t="s">
+        <v>383</v>
+      </c>
+      <c r="D36" s="85">
+        <v>6</v>
+      </c>
+      <c r="E36" s="83" t="s">
+        <v>384</v>
+      </c>
+      <c r="F36" s="83">
+        <v>6</v>
+      </c>
+      <c r="G36" s="83" t="s">
+        <v>385</v>
+      </c>
+      <c r="H36" s="83">
+        <v>2</v>
+      </c>
+      <c r="I36" s="83" t="s">
+        <v>385</v>
+      </c>
+      <c r="J36" s="83">
+        <v>2</v>
+      </c>
+      <c r="K36" s="83"/>
+      <c r="L36" s="83"/>
+      <c r="M36" s="85">
+        <f t="shared" ref="M36" si="1">L36+J36+H36+F36+D36</f>
+        <v>16</v>
+      </c>
+      <c r="N36" s="92"/>
+      <c r="O36" s="91" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="41" customHeight="1" thickBot="1">
+      <c r="A37" s="90">
+        <v>33</v>
+      </c>
+      <c r="B37" s="84" t="s">
+        <v>382</v>
+      </c>
+      <c r="C37" s="83" t="s">
+        <v>383</v>
+      </c>
+      <c r="D37" s="85">
+        <v>6</v>
+      </c>
+      <c r="E37" s="83" t="s">
+        <v>384</v>
+      </c>
+      <c r="F37" s="83">
+        <v>6</v>
+      </c>
+      <c r="G37" s="83" t="s">
+        <v>385</v>
+      </c>
+      <c r="H37" s="83">
+        <v>2</v>
+      </c>
+      <c r="I37" s="83" t="s">
+        <v>385</v>
+      </c>
+      <c r="J37" s="83">
+        <v>2</v>
+      </c>
+      <c r="K37" s="83"/>
+      <c r="L37" s="83"/>
+      <c r="M37" s="85">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="N20" s="81" t="s">
-        <v>425</v>
-      </c>
-      <c r="O20" s="86" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="41" customHeight="1" thickBot="1">
-      <c r="A21" s="86">
-        <v>18</v>
-      </c>
-      <c r="B21" s="84" t="s">
-        <v>276</v>
-      </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="86">
+      <c r="N37" s="92"/>
+      <c r="O37" s="91" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="12.9">
+      <c r="G39" s="47" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="12.9">
+      <c r="A41" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="84"/>
-      <c r="F21" s="86">
-        <v>6</v>
-      </c>
-      <c r="G21" s="84"/>
-      <c r="H21" s="86">
+      <c r="J41" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="84"/>
-      <c r="J21" s="86">
+      <c r="K41" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="L41" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="N21" s="81" t="s">
-        <v>277</v>
-      </c>
-      <c r="O21" s="81" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="41" customHeight="1" thickBot="1">
-      <c r="A22" s="86">
-        <v>19</v>
-      </c>
-      <c r="B22" s="84" t="s">
-        <v>357</v>
-      </c>
-      <c r="C22" s="84"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
-    </row>
-    <row r="23" spans="1:15" ht="41" customHeight="1" thickBot="1">
-      <c r="A23" s="86">
-        <v>20</v>
-      </c>
-      <c r="B23" s="84" t="s">
-        <v>358</v>
-      </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-    </row>
-    <row r="24" spans="1:15" ht="41" customHeight="1" thickBot="1">
-      <c r="A24" s="86">
-        <v>21</v>
-      </c>
-      <c r="B24" s="84" t="s">
-        <v>359</v>
-      </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-    </row>
-    <row r="25" spans="1:15" ht="41" customHeight="1" thickBot="1">
-      <c r="A25" s="86">
-        <v>22</v>
-      </c>
-      <c r="B25" s="84" t="s">
-        <v>360</v>
-      </c>
-      <c r="C25" s="84" t="s">
-        <v>441</v>
-      </c>
-      <c r="D25" s="86">
-        <v>4</v>
-      </c>
-      <c r="E25" s="84" t="s">
-        <v>442</v>
-      </c>
-      <c r="F25" s="86">
-        <v>4</v>
-      </c>
-      <c r="G25" s="83" t="s">
-        <v>443</v>
-      </c>
-      <c r="H25" s="86">
-        <v>3</v>
-      </c>
-      <c r="I25" s="83" t="s">
-        <v>443</v>
-      </c>
-      <c r="J25" s="86">
-        <v>3</v>
-      </c>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="N25" s="81"/>
-      <c r="O25" s="81"/>
-    </row>
-    <row r="26" spans="1:15" ht="41" customHeight="1" thickBot="1">
-      <c r="A26" s="86">
-        <v>23</v>
-      </c>
-      <c r="B26" s="84" t="s">
-        <v>361</v>
-      </c>
-      <c r="C26" s="84"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="84" t="s">
-        <v>439</v>
-      </c>
-      <c r="L26" s="86">
-        <v>3</v>
-      </c>
-      <c r="M26" s="86">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N26" s="83" t="s">
-        <v>279</v>
-      </c>
-      <c r="O26" s="81" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="41" customHeight="1" thickBot="1">
-      <c r="A27" s="86">
-        <v>24</v>
-      </c>
-      <c r="B27" s="84" t="s">
-        <v>362</v>
-      </c>
-      <c r="C27" s="84" t="s">
-        <v>404</v>
-      </c>
-      <c r="D27" s="86">
-        <v>5</v>
-      </c>
-      <c r="E27" s="84" t="s">
-        <v>405</v>
-      </c>
-      <c r="F27" s="86">
-        <v>5</v>
-      </c>
-      <c r="G27" s="83" t="s">
-        <v>406</v>
-      </c>
-      <c r="H27" s="86">
-        <v>3</v>
-      </c>
-      <c r="I27" s="83" t="s">
-        <v>407</v>
-      </c>
-      <c r="J27" s="86">
-        <v>3</v>
-      </c>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="N27" s="81" t="s">
-        <v>281</v>
-      </c>
-      <c r="O27" s="81" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="41" customHeight="1" thickBot="1">
-      <c r="A28" s="86">
-        <v>25</v>
-      </c>
-      <c r="B28" s="84" t="s">
-        <v>363</v>
-      </c>
-      <c r="C28" s="84"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="83" t="s">
-        <v>377</v>
-      </c>
-      <c r="H28" s="86">
-        <v>3</v>
-      </c>
-      <c r="I28" s="83" t="s">
-        <v>378</v>
-      </c>
-      <c r="J28" s="86">
-        <v>3</v>
-      </c>
-      <c r="K28" s="84" t="s">
-        <v>451</v>
-      </c>
-      <c r="L28" s="86">
-        <v>3</v>
-      </c>
-      <c r="M28" s="86">
-        <f t="shared" si="0"/>
+      <c r="M41" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="N28" s="81"/>
-      <c r="O28" s="81" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="41" customHeight="1" thickBot="1">
-      <c r="A29" s="86">
-        <v>26</v>
-      </c>
-      <c r="B29" s="84" t="s">
-        <v>364</v>
-      </c>
-      <c r="C29" s="84" t="s">
-        <v>444</v>
-      </c>
-      <c r="D29" s="86">
-        <v>4</v>
-      </c>
-      <c r="E29" s="84" t="s">
-        <v>445</v>
-      </c>
-      <c r="F29" s="86">
-        <v>4</v>
-      </c>
-      <c r="G29" s="84" t="s">
-        <v>446</v>
-      </c>
-      <c r="H29" s="86">
-        <v>3</v>
-      </c>
-      <c r="I29" s="84" t="s">
-        <v>447</v>
-      </c>
-      <c r="J29" s="86">
-        <v>3</v>
-      </c>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
-    </row>
-    <row r="30" spans="1:15" ht="41" customHeight="1" thickBot="1">
-      <c r="A30" s="86">
-        <v>27</v>
-      </c>
-      <c r="B30" s="84" t="s">
-        <v>365</v>
-      </c>
-      <c r="C30" s="84" t="s">
-        <v>393</v>
-      </c>
-      <c r="D30" s="86">
-        <v>4</v>
-      </c>
-      <c r="E30" s="84" t="s">
-        <v>394</v>
-      </c>
-      <c r="F30" s="86">
-        <v>5</v>
-      </c>
-      <c r="G30" s="84" t="s">
-        <v>400</v>
-      </c>
-      <c r="H30" s="86">
-        <v>3</v>
-      </c>
-      <c r="I30" s="84" t="s">
-        <v>401</v>
-      </c>
-      <c r="J30" s="86">
-        <v>3</v>
-      </c>
-      <c r="K30" s="86" t="s">
-        <v>380</v>
-      </c>
-      <c r="L30" s="86">
-        <v>3</v>
-      </c>
-      <c r="M30" s="86">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="N30" s="81"/>
-      <c r="O30" s="81"/>
-    </row>
-    <row r="31" spans="1:15" ht="41" customHeight="1" thickBot="1">
-      <c r="A31" s="86">
-        <v>28</v>
-      </c>
-      <c r="B31" s="84" t="s">
-        <v>366</v>
-      </c>
-      <c r="C31" s="84" t="s">
-        <v>389</v>
-      </c>
-      <c r="D31" s="86">
-        <v>5</v>
-      </c>
-      <c r="E31" s="84" t="s">
-        <v>390</v>
-      </c>
-      <c r="F31" s="86">
-        <v>5</v>
-      </c>
-      <c r="G31" s="84" t="s">
-        <v>391</v>
-      </c>
-      <c r="H31" s="86">
-        <v>3</v>
-      </c>
-      <c r="I31" s="84" t="s">
-        <v>392</v>
-      </c>
-      <c r="J31" s="86">
-        <v>3</v>
-      </c>
-      <c r="K31" s="86"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="86">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="N31" s="81" t="s">
-        <v>395</v>
-      </c>
-      <c r="O31" s="81"/>
-    </row>
-    <row r="32" spans="1:15" ht="41" customHeight="1" thickBot="1">
-      <c r="A32" s="86">
-        <v>29</v>
-      </c>
-      <c r="B32" s="84" t="s">
-        <v>367</v>
-      </c>
-      <c r="C32" s="84"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="85" t="s">
-        <v>379</v>
-      </c>
-      <c r="L32" s="86">
-        <v>3</v>
-      </c>
-      <c r="M32" s="86">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N32" s="81"/>
-      <c r="O32" s="81"/>
-    </row>
-    <row r="33" spans="1:15" ht="45.7" thickBot="1">
-      <c r="A33" s="86">
-        <v>30</v>
-      </c>
-      <c r="B33" s="84" t="s">
-        <v>375</v>
-      </c>
-      <c r="C33" s="84" t="s">
-        <v>409</v>
-      </c>
-      <c r="D33" s="86">
-        <v>0</v>
-      </c>
-      <c r="E33" s="84" t="s">
-        <v>410</v>
-      </c>
-      <c r="F33" s="86">
-        <v>0</v>
-      </c>
-      <c r="G33" s="83" t="s">
-        <v>414</v>
-      </c>
-      <c r="H33" s="86">
-        <v>12</v>
-      </c>
-      <c r="I33" s="94" t="s">
-        <v>412</v>
-      </c>
-      <c r="J33" s="86">
-        <v>6</v>
-      </c>
-      <c r="K33" s="86" t="s">
-        <v>413</v>
-      </c>
-      <c r="L33" s="86">
-        <v>6</v>
-      </c>
-      <c r="M33" s="86">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="N33" s="84" t="s">
-        <v>415</v>
-      </c>
-      <c r="O33" s="86" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="41" customHeight="1" thickBot="1">
-      <c r="A34" s="86">
-        <v>31</v>
-      </c>
-      <c r="B34" s="84" t="s">
-        <v>408</v>
-      </c>
-      <c r="C34" s="84" t="s">
-        <v>409</v>
-      </c>
-      <c r="D34" s="86">
-        <v>0</v>
-      </c>
-      <c r="E34" s="84" t="s">
-        <v>410</v>
-      </c>
-      <c r="F34" s="86">
-        <v>0</v>
-      </c>
-      <c r="G34" s="83" t="s">
-        <v>377</v>
-      </c>
-      <c r="H34" s="86">
-        <v>3</v>
-      </c>
-      <c r="I34" s="83" t="s">
-        <v>411</v>
-      </c>
-      <c r="J34" s="86">
-        <v>6</v>
-      </c>
-      <c r="K34" s="86" t="s">
-        <v>423</v>
-      </c>
-      <c r="L34" s="86">
-        <v>6</v>
-      </c>
-      <c r="M34" s="86">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="N34" s="81"/>
-      <c r="O34" s="81" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="41" customHeight="1" thickBot="1">
-      <c r="A35" s="86">
-        <v>32</v>
-      </c>
-      <c r="B35" s="84" t="s">
-        <v>368</v>
-      </c>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="86">
-        <v>18</v>
-      </c>
-      <c r="I35" s="84"/>
-      <c r="J35" s="86">
-        <v>18</v>
-      </c>
-      <c r="K35" s="86"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="86">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="N35" s="81"/>
-      <c r="O35" s="81" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="41" customHeight="1" thickBot="1">
-      <c r="A36" s="91">
-        <v>33</v>
-      </c>
-      <c r="B36" s="84" t="s">
-        <v>385</v>
-      </c>
-      <c r="C36" s="83" t="s">
-        <v>386</v>
-      </c>
-      <c r="D36" s="86">
-        <v>6</v>
-      </c>
-      <c r="E36" s="83" t="s">
-        <v>387</v>
-      </c>
-      <c r="F36" s="83">
-        <v>6</v>
-      </c>
-      <c r="G36" s="83" t="s">
-        <v>388</v>
-      </c>
-      <c r="H36" s="83">
-        <v>2</v>
-      </c>
-      <c r="I36" s="83" t="s">
-        <v>388</v>
-      </c>
-      <c r="J36" s="83">
-        <v>2</v>
-      </c>
-      <c r="K36" s="83"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="86">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="N36" s="93"/>
-      <c r="O36" s="92" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="12.9">
-      <c r="G38" s="47" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="12.9">
-      <c r="A40" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="G40" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="H40" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="I40" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="J40" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="K40" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="L40" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="M40" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="N40" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="O40" s="53"/>
-    </row>
-    <row r="41" spans="1:15" ht="12.9">
-      <c r="A41" s="54">
-        <v>1</v>
-      </c>
-      <c r="B41" s="55" t="s">
-        <v>244</v>
-      </c>
-      <c r="C41" s="56" t="s">
-        <v>290</v>
-      </c>
-      <c r="D41" s="57">
-        <v>10</v>
-      </c>
-      <c r="E41" s="58"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="57">
-        <f t="shared" ref="M41:M66" si="1">L41+J41+H41+F41+D41</f>
-        <v>10</v>
-      </c>
-      <c r="N41" s="56" t="s">
-        <v>245</v>
-      </c>
-      <c r="O41" s="56" t="s">
-        <v>244</v>
-      </c>
+      <c r="O41" s="53"/>
     </row>
     <row r="42" spans="1:15" ht="12.9">
       <c r="A42" s="54">
-        <v>2</v>
-      </c>
-      <c r="B42" s="60" t="s">
-        <v>246</v>
-      </c>
-      <c r="C42" s="61" t="s">
-        <v>291</v>
-      </c>
-      <c r="D42" s="62">
-        <v>6</v>
-      </c>
-      <c r="E42" s="61" t="s">
-        <v>292</v>
-      </c>
-      <c r="F42" s="62">
-        <v>6</v>
-      </c>
-      <c r="G42" s="61" t="s">
-        <v>293</v>
-      </c>
-      <c r="H42" s="62">
-        <v>3</v>
-      </c>
-      <c r="I42" s="61" t="s">
-        <v>294</v>
-      </c>
-      <c r="J42" s="62">
-        <v>3</v>
-      </c>
-      <c r="K42" s="63"/>
-      <c r="L42" s="63"/>
+        <v>1</v>
+      </c>
+      <c r="B42" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="C42" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="D42" s="57">
+        <v>10</v>
+      </c>
+      <c r="E42" s="58"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
       <c r="M42" s="57">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="N42" s="64" t="s">
-        <v>247</v>
-      </c>
-      <c r="O42" s="65" t="s">
-        <v>246</v>
+        <f t="shared" ref="M42:M67" si="2">L42+J42+H42+F42+D42</f>
+        <v>10</v>
+      </c>
+      <c r="N42" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="O42" s="56" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="12.9">
       <c r="A43" s="54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B43" s="60" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C43" s="61" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D43" s="62">
         <v>6</v>
       </c>
       <c r="E43" s="61" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F43" s="62">
         <v>6</v>
       </c>
       <c r="G43" s="61" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H43" s="62">
         <v>3</v>
       </c>
       <c r="I43" s="61" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J43" s="62">
         <v>3</v>
@@ -22955,43 +23151,43 @@
       <c r="K43" s="63"/>
       <c r="L43" s="63"/>
       <c r="M43" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="N43" s="65" t="s">
-        <v>249</v>
+      <c r="N43" s="64" t="s">
+        <v>247</v>
       </c>
       <c r="O43" s="65" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="12.9">
       <c r="A44" s="54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" s="60" t="s">
-        <v>253</v>
-      </c>
-      <c r="C44" s="65" t="s">
-        <v>298</v>
+        <v>248</v>
+      </c>
+      <c r="C44" s="61" t="s">
+        <v>294</v>
       </c>
       <c r="D44" s="62">
         <v>6</v>
       </c>
-      <c r="E44" s="65" t="s">
-        <v>299</v>
+      <c r="E44" s="61" t="s">
+        <v>295</v>
       </c>
       <c r="F44" s="62">
         <v>6</v>
       </c>
-      <c r="G44" s="65" t="s">
-        <v>300</v>
+      <c r="G44" s="61" t="s">
+        <v>296</v>
       </c>
       <c r="H44" s="62">
         <v>3</v>
       </c>
-      <c r="I44" s="65" t="s">
-        <v>301</v>
+      <c r="I44" s="61" t="s">
+        <v>294</v>
       </c>
       <c r="J44" s="62">
         <v>3</v>
@@ -22999,43 +23195,43 @@
       <c r="K44" s="63"/>
       <c r="L44" s="63"/>
       <c r="M44" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="N44" s="65" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="O44" s="65" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="12.9">
       <c r="A45" s="54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45" s="60" t="s">
-        <v>255</v>
-      </c>
-      <c r="C45" s="61" t="s">
-        <v>302</v>
+        <v>253</v>
+      </c>
+      <c r="C45" s="65" t="s">
+        <v>297</v>
       </c>
       <c r="D45" s="62">
         <v>6</v>
       </c>
-      <c r="E45" s="61" t="s">
-        <v>302</v>
+      <c r="E45" s="65" t="s">
+        <v>298</v>
       </c>
       <c r="F45" s="62">
         <v>6</v>
       </c>
       <c r="G45" s="65" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H45" s="62">
         <v>3</v>
       </c>
       <c r="I45" s="65" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J45" s="62">
         <v>3</v>
@@ -23043,235 +23239,235 @@
       <c r="K45" s="63"/>
       <c r="L45" s="63"/>
       <c r="M45" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="N45" s="65" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O45" s="65" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="12.9">
       <c r="A46" s="54">
+        <v>5</v>
+      </c>
+      <c r="B46" s="60" t="s">
+        <v>255</v>
+      </c>
+      <c r="C46" s="61" t="s">
+        <v>301</v>
+      </c>
+      <c r="D46" s="62">
         <v>6</v>
       </c>
-      <c r="B46" s="60" t="s">
-        <v>257</v>
-      </c>
-      <c r="C46" s="65" t="s">
-        <v>303</v>
-      </c>
-      <c r="D46" s="62">
-        <v>10</v>
-      </c>
-      <c r="E46" s="66"/>
+      <c r="E46" s="61" t="s">
+        <v>301</v>
+      </c>
       <c r="F46" s="62">
-        <v>5</v>
-      </c>
-      <c r="G46" s="67"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="63"/>
+        <v>6</v>
+      </c>
+      <c r="G46" s="65" t="s">
+        <v>299</v>
+      </c>
+      <c r="H46" s="62">
+        <v>3</v>
+      </c>
+      <c r="I46" s="65" t="s">
+        <v>300</v>
+      </c>
+      <c r="J46" s="62">
+        <v>3</v>
+      </c>
       <c r="K46" s="63"/>
       <c r="L46" s="63"/>
       <c r="M46" s="57">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="N46" s="64" t="s">
-        <v>258</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N46" s="65" t="s">
+        <v>256</v>
       </c>
       <c r="O46" s="65" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="12.9">
       <c r="A47" s="54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47" s="60" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C47" s="65" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D47" s="62">
-        <v>6</v>
-      </c>
-      <c r="E47" s="65" t="s">
-        <v>304</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E47" s="66"/>
       <c r="F47" s="62">
         <v>5</v>
       </c>
-      <c r="G47" s="61" t="s">
-        <v>297</v>
-      </c>
-      <c r="H47" s="62">
-        <v>3</v>
-      </c>
-      <c r="I47" s="61" t="s">
-        <v>295</v>
-      </c>
-      <c r="J47" s="62">
-        <v>3</v>
-      </c>
+      <c r="G47" s="67"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="63"/>
       <c r="K47" s="63"/>
       <c r="L47" s="63"/>
       <c r="M47" s="57">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="N47" s="65" t="s">
-        <v>305</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N47" s="64" t="s">
+        <v>258</v>
       </c>
       <c r="O47" s="65" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="12.9">
       <c r="A48" s="54">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48" s="60" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C48" s="65" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D48" s="62">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E48" s="65" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F48" s="62">
         <v>5</v>
       </c>
-      <c r="G48" s="67"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="63"/>
+      <c r="G48" s="61" t="s">
+        <v>296</v>
+      </c>
+      <c r="H48" s="62">
+        <v>3</v>
+      </c>
+      <c r="I48" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="J48" s="62">
+        <v>3</v>
+      </c>
       <c r="K48" s="63"/>
       <c r="L48" s="63"/>
       <c r="M48" s="57">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="N48" s="64" t="s">
-        <v>308</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N48" s="65" t="s">
+        <v>304</v>
       </c>
       <c r="O48" s="65" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="12.9">
       <c r="A49" s="54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B49" s="60" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C49" s="65" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D49" s="62">
-        <v>10</v>
-      </c>
-      <c r="E49" s="67"/>
+        <v>5</v>
+      </c>
+      <c r="E49" s="65" t="s">
+        <v>306</v>
+      </c>
       <c r="F49" s="62">
-        <v>6</v>
-      </c>
-      <c r="G49" s="63"/>
+        <v>5</v>
+      </c>
+      <c r="G49" s="67"/>
       <c r="H49" s="63"/>
-      <c r="I49" s="63"/>
+      <c r="I49" s="68"/>
       <c r="J49" s="63"/>
       <c r="K49" s="63"/>
       <c r="L49" s="63"/>
       <c r="M49" s="57">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="N49" s="65" t="s">
-        <v>263</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N49" s="64" t="s">
+        <v>307</v>
       </c>
       <c r="O49" s="65" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="12.9">
       <c r="A50" s="54">
+        <v>9</v>
+      </c>
+      <c r="B50" s="60" t="s">
+        <v>262</v>
+      </c>
+      <c r="C50" s="65" t="s">
+        <v>308</v>
+      </c>
+      <c r="D50" s="62">
         <v>10</v>
       </c>
-      <c r="B50" s="60" t="s">
-        <v>264</v>
-      </c>
-      <c r="C50" s="69" t="s">
-        <v>310</v>
-      </c>
-      <c r="D50" s="62">
-        <v>6</v>
-      </c>
-      <c r="E50" s="69" t="s">
-        <v>311</v>
-      </c>
+      <c r="E50" s="67"/>
       <c r="F50" s="62">
         <v>6</v>
       </c>
-      <c r="G50" s="69" t="s">
-        <v>312</v>
-      </c>
-      <c r="H50" s="62">
-        <v>3</v>
-      </c>
-      <c r="I50" s="70" t="s">
-        <v>251</v>
-      </c>
-      <c r="J50" s="62">
-        <v>3</v>
-      </c>
+      <c r="G50" s="63"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
       <c r="K50" s="63"/>
       <c r="L50" s="63"/>
       <c r="M50" s="57">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="N50" s="65" t="s">
-        <v>313</v>
-      </c>
-      <c r="O50" s="71" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="O50" s="65" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="12.9">
       <c r="A51" s="54">
-        <v>11</v>
-      </c>
-      <c r="B51" s="72" t="s">
-        <v>266</v>
-      </c>
-      <c r="C51" s="65" t="s">
-        <v>314</v>
+        <v>10</v>
+      </c>
+      <c r="B51" s="60" t="s">
+        <v>264</v>
+      </c>
+      <c r="C51" s="69" t="s">
+        <v>309</v>
       </c>
       <c r="D51" s="62">
         <v>6</v>
       </c>
-      <c r="E51" s="65" t="s">
-        <v>315</v>
+      <c r="E51" s="69" t="s">
+        <v>310</v>
       </c>
       <c r="F51" s="62">
         <v>6</v>
       </c>
-      <c r="G51" s="61" t="s">
-        <v>316</v>
+      <c r="G51" s="69" t="s">
+        <v>311</v>
       </c>
       <c r="H51" s="62">
         <v>3</v>
       </c>
-      <c r="I51" s="61" t="s">
-        <v>317</v>
+      <c r="I51" s="70" t="s">
+        <v>251</v>
       </c>
       <c r="J51" s="62">
         <v>3</v>
@@ -23279,43 +23475,43 @@
       <c r="K51" s="63"/>
       <c r="L51" s="63"/>
       <c r="M51" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="N51" s="65" t="s">
-        <v>265</v>
-      </c>
-      <c r="O51" s="65" t="s">
-        <v>268</v>
+        <v>312</v>
+      </c>
+      <c r="O51" s="71" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="12.9">
       <c r="A52" s="54">
-        <v>12</v>
-      </c>
-      <c r="B52" s="60" t="s">
-        <v>269</v>
+        <v>11</v>
+      </c>
+      <c r="B52" s="72" t="s">
+        <v>266</v>
       </c>
       <c r="C52" s="65" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D52" s="62">
         <v>6</v>
       </c>
       <c r="E52" s="65" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F52" s="62">
         <v>6</v>
       </c>
-      <c r="G52" s="65" t="s">
-        <v>320</v>
+      <c r="G52" s="61" t="s">
+        <v>315</v>
       </c>
       <c r="H52" s="62">
         <v>3</v>
       </c>
-      <c r="I52" s="65" t="s">
-        <v>321</v>
+      <c r="I52" s="61" t="s">
+        <v>316</v>
       </c>
       <c r="J52" s="62">
         <v>3</v>
@@ -23323,43 +23519,43 @@
       <c r="K52" s="63"/>
       <c r="L52" s="63"/>
       <c r="M52" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="N52" s="73" t="s">
-        <v>322</v>
+      <c r="N52" s="65" t="s">
+        <v>265</v>
       </c>
       <c r="O52" s="65" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="12.9">
       <c r="A53" s="54">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B53" s="60" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C53" s="65" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D53" s="62">
         <v>6</v>
       </c>
       <c r="E53" s="65" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F53" s="62">
         <v>6</v>
       </c>
       <c r="G53" s="65" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H53" s="62">
         <v>3</v>
       </c>
       <c r="I53" s="65" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J53" s="62">
         <v>3</v>
@@ -23367,41 +23563,43 @@
       <c r="K53" s="63"/>
       <c r="L53" s="63"/>
       <c r="M53" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="N53" s="64" t="s">
-        <v>326</v>
+      <c r="N53" s="73" t="s">
+        <v>321</v>
       </c>
       <c r="O53" s="65" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="12.9">
       <c r="A54" s="54">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B54" s="60" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C54" s="65" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D54" s="62">
-        <v>10</v>
-      </c>
-      <c r="E54" s="68"/>
+        <v>6</v>
+      </c>
+      <c r="E54" s="65" t="s">
+        <v>322</v>
+      </c>
       <c r="F54" s="62">
         <v>6</v>
       </c>
-      <c r="G54" s="69" t="s">
-        <v>274</v>
+      <c r="G54" s="65" t="s">
+        <v>323</v>
       </c>
       <c r="H54" s="62">
         <v>3</v>
       </c>
-      <c r="I54" s="69" t="s">
-        <v>275</v>
+      <c r="I54" s="65" t="s">
+        <v>324</v>
       </c>
       <c r="J54" s="62">
         <v>3</v>
@@ -23409,43 +23607,41 @@
       <c r="K54" s="63"/>
       <c r="L54" s="63"/>
       <c r="M54" s="57">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="N54" s="73" t="s">
-        <v>328</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N54" s="64" t="s">
+        <v>325</v>
       </c>
       <c r="O54" s="65" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="12.9">
       <c r="A55" s="54">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B55" s="60" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C55" s="65" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D55" s="62">
-        <v>6</v>
-      </c>
-      <c r="E55" s="65" t="s">
-        <v>329</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E55" s="68"/>
       <c r="F55" s="62">
         <v>6</v>
       </c>
-      <c r="G55" s="65" t="s">
-        <v>330</v>
+      <c r="G55" s="69" t="s">
+        <v>273</v>
       </c>
       <c r="H55" s="62">
         <v>3</v>
       </c>
-      <c r="I55" s="65" t="s">
-        <v>331</v>
+      <c r="I55" s="69" t="s">
+        <v>274</v>
       </c>
       <c r="J55" s="62">
         <v>3</v>
@@ -23453,43 +23649,43 @@
       <c r="K55" s="63"/>
       <c r="L55" s="63"/>
       <c r="M55" s="57">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="N55" s="64" t="s">
-        <v>277</v>
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="N55" s="73" t="s">
+        <v>327</v>
       </c>
       <c r="O55" s="65" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="12.9">
       <c r="A56" s="54">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B56" s="60" t="s">
-        <v>278</v>
-      </c>
-      <c r="C56" s="61" t="s">
-        <v>332</v>
+        <v>275</v>
+      </c>
+      <c r="C56" s="65" t="s">
+        <v>328</v>
       </c>
       <c r="D56" s="62">
         <v>6</v>
       </c>
-      <c r="E56" s="61" t="s">
-        <v>332</v>
+      <c r="E56" s="65" t="s">
+        <v>328</v>
       </c>
       <c r="F56" s="62">
         <v>6</v>
       </c>
-      <c r="G56" s="61" t="s">
-        <v>333</v>
+      <c r="G56" s="65" t="s">
+        <v>329</v>
       </c>
       <c r="H56" s="62">
         <v>3</v>
       </c>
-      <c r="I56" s="61" t="s">
-        <v>334</v>
+      <c r="I56" s="65" t="s">
+        <v>330</v>
       </c>
       <c r="J56" s="62">
         <v>3</v>
@@ -23497,123 +23693,123 @@
       <c r="K56" s="63"/>
       <c r="L56" s="63"/>
       <c r="M56" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="N56" s="65" t="s">
-        <v>279</v>
+      <c r="N56" s="64" t="s">
+        <v>276</v>
       </c>
       <c r="O56" s="65" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="12.9">
       <c r="A57" s="54">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B57" s="60" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C57" s="61" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D57" s="62">
         <v>6</v>
       </c>
       <c r="E57" s="61" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F57" s="62">
         <v>6</v>
       </c>
-      <c r="G57" s="68"/>
-      <c r="H57" s="63"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="63"/>
+      <c r="G57" s="61" t="s">
+        <v>332</v>
+      </c>
+      <c r="H57" s="62">
+        <v>3</v>
+      </c>
+      <c r="I57" s="61" t="s">
+        <v>333</v>
+      </c>
+      <c r="J57" s="62">
+        <v>3</v>
+      </c>
       <c r="K57" s="63"/>
       <c r="L57" s="63"/>
       <c r="M57" s="57">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="N57" s="65" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O57" s="65" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="12.9">
       <c r="A58" s="54">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B58" s="60" t="s">
-        <v>282</v>
-      </c>
-      <c r="C58" s="65" t="s">
-        <v>336</v>
+        <v>279</v>
+      </c>
+      <c r="C58" s="61" t="s">
+        <v>334</v>
       </c>
       <c r="D58" s="62">
         <v>6</v>
       </c>
-      <c r="E58" s="65" t="s">
-        <v>337</v>
+      <c r="E58" s="61" t="s">
+        <v>334</v>
       </c>
       <c r="F58" s="62">
         <v>6</v>
       </c>
-      <c r="G58" s="69" t="s">
-        <v>338</v>
-      </c>
-      <c r="H58" s="62">
-        <v>3</v>
-      </c>
-      <c r="I58" s="70" t="s">
-        <v>339</v>
-      </c>
-      <c r="J58" s="62">
-        <v>3</v>
-      </c>
+      <c r="G58" s="68"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="63"/>
       <c r="K58" s="63"/>
       <c r="L58" s="63"/>
       <c r="M58" s="57">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="N58" s="65" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O58" s="65" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="12.9">
       <c r="A59" s="54">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B59" s="60" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C59" s="65" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="D59" s="62">
         <v>6</v>
       </c>
       <c r="E59" s="65" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="F59" s="62">
         <v>6</v>
       </c>
       <c r="G59" s="69" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="H59" s="62">
         <v>3</v>
       </c>
       <c r="I59" s="70" t="s">
-        <v>251</v>
+        <v>338</v>
       </c>
       <c r="J59" s="62">
         <v>3</v>
@@ -23621,35 +23817,37 @@
       <c r="K59" s="63"/>
       <c r="L59" s="63"/>
       <c r="M59" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="N59" s="66"/>
+      <c r="N59" s="65" t="s">
+        <v>282</v>
+      </c>
       <c r="O59" s="65" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="12.9">
       <c r="A60" s="54">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B60" s="60" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C60" s="65" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D60" s="62">
         <v>6</v>
       </c>
       <c r="E60" s="65" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F60" s="62">
         <v>6</v>
       </c>
       <c r="G60" s="69" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H60" s="62">
         <v>3</v>
@@ -23663,268 +23861,310 @@
       <c r="K60" s="63"/>
       <c r="L60" s="63"/>
       <c r="M60" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="N60" s="66"/>
       <c r="O60" s="65" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="12.9">
       <c r="A61" s="54">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B61" s="60" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C61" s="65" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D61" s="62">
         <v>6</v>
       </c>
       <c r="E61" s="65" t="s">
-        <v>310</v>
-      </c>
-      <c r="F61" s="63"/>
+        <v>309</v>
+      </c>
+      <c r="F61" s="62">
+        <v>6</v>
+      </c>
       <c r="G61" s="69" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H61" s="62">
-        <v>18</v>
-      </c>
-      <c r="I61" s="69" t="s">
-        <v>311</v>
+        <v>3</v>
+      </c>
+      <c r="I61" s="70" t="s">
+        <v>251</v>
       </c>
       <c r="J61" s="62">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="K61" s="63"/>
       <c r="L61" s="63"/>
       <c r="M61" s="57">
-        <f t="shared" si="1"/>
-        <v>42</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="N61" s="66"/>
       <c r="O61" s="65" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="12.9">
       <c r="A62" s="54">
-        <v>22</v>
-      </c>
-      <c r="B62" s="74" t="s">
-        <v>287</v>
+        <v>21</v>
+      </c>
+      <c r="B62" s="60" t="s">
+        <v>285</v>
       </c>
       <c r="C62" s="65" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D62" s="62">
         <v>6</v>
       </c>
       <c r="E62" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="F62" s="63"/>
+      <c r="G62" s="69" t="s">
+        <v>309</v>
+      </c>
+      <c r="H62" s="62">
+        <v>18</v>
+      </c>
+      <c r="I62" s="69" t="s">
         <v>310</v>
       </c>
-      <c r="F62" s="63"/>
-      <c r="G62" s="65" t="s">
-        <v>340</v>
-      </c>
-      <c r="H62" s="62">
-        <v>3</v>
-      </c>
-      <c r="I62" s="65" t="s">
-        <v>341</v>
-      </c>
       <c r="J62" s="62">
-        <v>3</v>
-      </c>
-      <c r="K62" s="69" t="s">
-        <v>288</v>
-      </c>
-      <c r="L62" s="62">
         <v>18</v>
       </c>
+      <c r="K62" s="63"/>
+      <c r="L62" s="63"/>
       <c r="M62" s="57">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>42</v>
       </c>
       <c r="N62" s="66"/>
-      <c r="O62" s="69" t="s">
-        <v>287</v>
+      <c r="O62" s="65" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="12.9">
       <c r="A63" s="54">
-        <v>23</v>
-      </c>
-      <c r="B63" s="60" t="s">
-        <v>342</v>
-      </c>
-      <c r="C63" s="66"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
+        <v>22</v>
+      </c>
+      <c r="B63" s="74" t="s">
+        <v>286</v>
+      </c>
+      <c r="C63" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="D63" s="62">
+        <v>6</v>
+      </c>
+      <c r="E63" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="F63" s="63"/>
       <c r="G63" s="65" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H63" s="62">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I63" s="65" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J63" s="62">
-        <v>6</v>
-      </c>
-      <c r="K63" s="61" t="s">
-        <v>294</v>
+        <v>3</v>
+      </c>
+      <c r="K63" s="69" t="s">
+        <v>287</v>
       </c>
       <c r="L63" s="62">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="M63" s="57">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="N63" s="66"/>
-      <c r="O63" s="65" t="s">
-        <v>342</v>
+      <c r="O63" s="69" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="12.9">
       <c r="A64" s="54">
+        <v>23</v>
+      </c>
+      <c r="B64" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="C64" s="66"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="65" t="s">
+        <v>342</v>
+      </c>
+      <c r="H64" s="62">
+        <v>9</v>
+      </c>
+      <c r="I64" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="J64" s="62">
+        <v>6</v>
+      </c>
+      <c r="K64" s="61" t="s">
+        <v>293</v>
+      </c>
+      <c r="L64" s="62">
+        <v>3</v>
+      </c>
+      <c r="M64" s="57">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N64" s="66"/>
+      <c r="O64" s="65" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="12.9">
+      <c r="A65" s="54">
         <v>24</v>
       </c>
-      <c r="B64" s="60" t="s">
+      <c r="B65" s="60" t="s">
+        <v>344</v>
+      </c>
+      <c r="C65" s="65" t="s">
         <v>345</v>
       </c>
-      <c r="C64" s="65" t="s">
+      <c r="D65" s="62">
+        <v>7</v>
+      </c>
+      <c r="E65" s="65" t="s">
         <v>346</v>
       </c>
-      <c r="D64" s="62">
+      <c r="F65" s="62">
         <v>7</v>
       </c>
-      <c r="E64" s="65" t="s">
+      <c r="G65" s="69" t="s">
         <v>347</v>
-      </c>
-      <c r="F64" s="62">
-        <v>7</v>
-      </c>
-      <c r="G64" s="69" t="s">
-        <v>348</v>
-      </c>
-      <c r="H64" s="62">
-        <v>3</v>
-      </c>
-      <c r="I64" s="69" t="s">
-        <v>349</v>
-      </c>
-      <c r="J64" s="62">
-        <v>3</v>
-      </c>
-      <c r="K64" s="66"/>
-      <c r="L64" s="66"/>
-      <c r="M64" s="57">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="N64" s="65" t="s">
-        <v>350</v>
-      </c>
-      <c r="O64" s="65" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="12.9">
-      <c r="A65" s="75">
-        <v>25</v>
-      </c>
-      <c r="B65" s="76" t="s">
-        <v>250</v>
-      </c>
-      <c r="C65" s="69" t="s">
-        <v>310</v>
-      </c>
-      <c r="D65" s="62">
-        <v>6</v>
-      </c>
-      <c r="E65" s="69" t="s">
-        <v>311</v>
-      </c>
-      <c r="F65" s="62">
-        <v>6</v>
-      </c>
-      <c r="G65" s="69" t="s">
-        <v>312</v>
       </c>
       <c r="H65" s="62">
         <v>3</v>
       </c>
-      <c r="I65" s="70" t="s">
-        <v>251</v>
+      <c r="I65" s="69" t="s">
+        <v>348</v>
       </c>
       <c r="J65" s="62">
         <v>3</v>
       </c>
-      <c r="K65" s="63"/>
-      <c r="L65" s="63"/>
+      <c r="K65" s="66"/>
+      <c r="L65" s="66"/>
       <c r="M65" s="57">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="N65" s="65" t="s">
-        <v>252</v>
-      </c>
-      <c r="O65" s="77" t="s">
+        <v>349</v>
+      </c>
+      <c r="O65" s="65" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="12.9">
+      <c r="A66" s="75">
+        <v>25</v>
+      </c>
+      <c r="B66" s="76" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" ht="12.9">
-      <c r="A66" s="78">
-        <v>26</v>
-      </c>
-      <c r="B66" s="76" t="s">
-        <v>351</v>
-      </c>
       <c r="C66" s="69" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="D66" s="62">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E66" s="69" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="F66" s="62">
-        <v>2</v>
-      </c>
-      <c r="G66" s="65" t="s">
-        <v>343</v>
+        <v>6</v>
+      </c>
+      <c r="G66" s="69" t="s">
+        <v>311</v>
       </c>
       <c r="H66" s="62">
         <v>3</v>
       </c>
-      <c r="I66" s="65" t="s">
+      <c r="I66" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="J66" s="62">
+        <v>3</v>
+      </c>
+      <c r="K66" s="63"/>
+      <c r="L66" s="63"/>
+      <c r="M66" s="57">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N66" s="65" t="s">
+        <v>252</v>
+      </c>
+      <c r="O66" s="77" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="12.9">
+      <c r="A67" s="78">
+        <v>26</v>
+      </c>
+      <c r="B67" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C67" s="69" t="s">
+        <v>351</v>
+      </c>
+      <c r="D67" s="62">
+        <v>2</v>
+      </c>
+      <c r="E67" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="F67" s="62">
+        <v>2</v>
+      </c>
+      <c r="G67" s="65" t="s">
+        <v>342</v>
+      </c>
+      <c r="H67" s="62">
+        <v>3</v>
+      </c>
+      <c r="I67" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="J67" s="62">
+        <v>6</v>
+      </c>
+      <c r="K67" s="61" t="s">
         <v>354</v>
       </c>
-      <c r="J66" s="62">
+      <c r="L67" s="62">
         <v>6</v>
       </c>
-      <c r="K66" s="61" t="s">
-        <v>355</v>
-      </c>
-      <c r="L66" s="62">
-        <v>6</v>
-      </c>
-      <c r="M66" s="57">
-        <f t="shared" si="1"/>
+      <c r="M67" s="57">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="N66" s="66"/>
-      <c r="O66" s="77" t="s">
-        <v>351</v>
+      <c r="N67" s="66"/>
+      <c r="O67" s="77" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
